--- a/Proyecto_final/Insumos/aviones_compania_final.xlsx
+++ b/Proyecto_final/Insumos/aviones_compania_final.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Proyecto_final\Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67d5a1dced8d44fe/Documentos/Dirtrab/Trabajo-Logica---Aerolinea/Proyecto_final/Insumos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A8C0A-9A8F-499A-BC76-9FB60064EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F98" sqref="F97:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Proyecto_final/Insumos/aviones_compania_final.xlsx
+++ b/Proyecto_final/Insumos/aviones_compania_final.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Proyecto_final\Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A8C0A-9A8F-499A-BC76-9FB60064EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE3161-DE71-401F-BF80-15A8D7E93BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio_Aviones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Directorio_Aviones!$H$1:$H$151</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="301">
   <si>
     <t>matricula</t>
   </si>
@@ -43,9 +59,6 @@
     <t>capacidad_pasajeros</t>
   </si>
   <si>
-    <t>peso_maximo_equipaje</t>
-  </si>
-  <si>
     <t>disponible</t>
   </si>
   <si>
@@ -58,643 +71,874 @@
     <t>ABC001</t>
   </si>
   <si>
-    <t>ABC002</t>
-  </si>
-  <si>
     <t>ABC003</t>
   </si>
   <si>
-    <t>ABC004</t>
-  </si>
-  <si>
     <t>ABC005</t>
   </si>
   <si>
-    <t>ABC006</t>
-  </si>
-  <si>
     <t>ABC007</t>
   </si>
   <si>
-    <t>ABC008</t>
-  </si>
-  <si>
     <t>ABC009</t>
   </si>
   <si>
-    <t>ABC010</t>
-  </si>
-  <si>
     <t>ABC011</t>
   </si>
   <si>
-    <t>ABC012</t>
-  </si>
-  <si>
     <t>ABC013</t>
   </si>
   <si>
-    <t>ABC014</t>
-  </si>
-  <si>
     <t>ABC015</t>
   </si>
   <si>
-    <t>ABC016</t>
-  </si>
-  <si>
     <t>ABC017</t>
   </si>
   <si>
-    <t>ABC018</t>
-  </si>
-  <si>
     <t>ABC019</t>
   </si>
   <si>
-    <t>ABC020</t>
-  </si>
-  <si>
     <t>ABC021</t>
   </si>
   <si>
-    <t>ABC022</t>
-  </si>
-  <si>
     <t>ABC023</t>
   </si>
   <si>
-    <t>ABC024</t>
-  </si>
-  <si>
     <t>ABC025</t>
   </si>
   <si>
-    <t>ABC026</t>
-  </si>
-  <si>
     <t>ABC027</t>
   </si>
   <si>
-    <t>ABC028</t>
-  </si>
-  <si>
     <t>ABC029</t>
   </si>
   <si>
-    <t>ABC030</t>
-  </si>
-  <si>
     <t>ABC031</t>
   </si>
   <si>
-    <t>ABC032</t>
-  </si>
-  <si>
     <t>ABC033</t>
   </si>
   <si>
-    <t>ABC034</t>
-  </si>
-  <si>
     <t>ABC035</t>
   </si>
   <si>
-    <t>ABC036</t>
-  </si>
-  <si>
     <t>ABC037</t>
   </si>
   <si>
-    <t>ABC038</t>
-  </si>
-  <si>
     <t>ABC039</t>
   </si>
   <si>
-    <t>ABC040</t>
-  </si>
-  <si>
     <t>ABC041</t>
   </si>
   <si>
-    <t>ABC042</t>
-  </si>
-  <si>
     <t>ABC043</t>
   </si>
   <si>
-    <t>ABC044</t>
-  </si>
-  <si>
     <t>ABC045</t>
   </si>
   <si>
-    <t>ABC046</t>
-  </si>
-  <si>
     <t>ABC047</t>
   </si>
   <si>
-    <t>ABC048</t>
-  </si>
-  <si>
     <t>ABC049</t>
   </si>
   <si>
-    <t>ABC050</t>
-  </si>
-  <si>
     <t>ABC051</t>
   </si>
   <si>
-    <t>ABC052</t>
-  </si>
-  <si>
     <t>ABC053</t>
   </si>
   <si>
-    <t>ABC054</t>
-  </si>
-  <si>
     <t>ABC055</t>
   </si>
   <si>
-    <t>ABC056</t>
-  </si>
-  <si>
     <t>ABC057</t>
   </si>
   <si>
-    <t>ABC058</t>
-  </si>
-  <si>
     <t>ABC059</t>
   </si>
   <si>
-    <t>ABC060</t>
-  </si>
-  <si>
     <t>ABC061</t>
   </si>
   <si>
-    <t>ABC062</t>
-  </si>
-  <si>
     <t>ABC063</t>
   </si>
   <si>
-    <t>ABC064</t>
-  </si>
-  <si>
     <t>ABC065</t>
   </si>
   <si>
-    <t>ABC066</t>
-  </si>
-  <si>
     <t>ABC067</t>
   </si>
   <si>
-    <t>ABC068</t>
-  </si>
-  <si>
     <t>ABC069</t>
   </si>
   <si>
-    <t>ABC070</t>
-  </si>
-  <si>
     <t>ABC071</t>
   </si>
   <si>
-    <t>ABC072</t>
-  </si>
-  <si>
     <t>ABC073</t>
   </si>
   <si>
-    <t>ABC074</t>
-  </si>
-  <si>
     <t>ABC075</t>
   </si>
   <si>
-    <t>ABC076</t>
-  </si>
-  <si>
     <t>ABC077</t>
   </si>
   <si>
-    <t>ABC078</t>
-  </si>
-  <si>
     <t>ABC079</t>
   </si>
   <si>
-    <t>ABC080</t>
-  </si>
-  <si>
     <t>ABC081</t>
   </si>
   <si>
-    <t>ABC082</t>
-  </si>
-  <si>
     <t>ABC083</t>
   </si>
   <si>
-    <t>ABC084</t>
-  </si>
-  <si>
     <t>ABC085</t>
   </si>
   <si>
-    <t>ABC086</t>
-  </si>
-  <si>
     <t>ABC087</t>
   </si>
   <si>
-    <t>ABC088</t>
-  </si>
-  <si>
     <t>ABC089</t>
   </si>
   <si>
-    <t>ABC090</t>
-  </si>
-  <si>
     <t>ABC091</t>
   </si>
   <si>
-    <t>ABC092</t>
-  </si>
-  <si>
     <t>ABC093</t>
   </si>
   <si>
-    <t>ABC094</t>
-  </si>
-  <si>
     <t>ABC095</t>
   </si>
   <si>
-    <t>ABC096</t>
-  </si>
-  <si>
     <t>ABC097</t>
   </si>
   <si>
-    <t>ABC098</t>
-  </si>
-  <si>
     <t>ABC099</t>
   </si>
   <si>
-    <t>ABC100</t>
+    <t>ABC101</t>
+  </si>
+  <si>
+    <t>ABC102</t>
+  </si>
+  <si>
+    <t>ABC103</t>
+  </si>
+  <si>
+    <t>ABC104</t>
+  </si>
+  <si>
+    <t>ABC105</t>
+  </si>
+  <si>
+    <t>ABC106</t>
+  </si>
+  <si>
+    <t>ABC107</t>
+  </si>
+  <si>
+    <t>ABC108</t>
+  </si>
+  <si>
+    <t>ABC109</t>
+  </si>
+  <si>
+    <t>ABC110</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>ABC112</t>
+  </si>
+  <si>
+    <t>ABC113</t>
+  </si>
+  <si>
+    <t>ABC114</t>
+  </si>
+  <si>
+    <t>ABC115</t>
+  </si>
+  <si>
+    <t>ABC116</t>
+  </si>
+  <si>
+    <t>ABC117</t>
+  </si>
+  <si>
+    <t>ABC118</t>
+  </si>
+  <si>
+    <t>ABC119</t>
+  </si>
+  <si>
+    <t>ABC120</t>
+  </si>
+  <si>
+    <t>ABC121</t>
+  </si>
+  <si>
+    <t>ABC122</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>ABC124</t>
+  </si>
+  <si>
+    <t>ABC125</t>
+  </si>
+  <si>
+    <t>ABC126</t>
+  </si>
+  <si>
+    <t>ABC127</t>
+  </si>
+  <si>
+    <t>ABC128</t>
+  </si>
+  <si>
+    <t>ABC129</t>
+  </si>
+  <si>
+    <t>ABC130</t>
+  </si>
+  <si>
+    <t>ABC131</t>
+  </si>
+  <si>
+    <t>ABC132</t>
+  </si>
+  <si>
+    <t>ABC133</t>
+  </si>
+  <si>
+    <t>ABC134</t>
+  </si>
+  <si>
+    <t>ABC135</t>
+  </si>
+  <si>
+    <t>ABC136</t>
+  </si>
+  <si>
+    <t>ABC137</t>
+  </si>
+  <si>
+    <t>ABC138</t>
+  </si>
+  <si>
+    <t>ABC139</t>
+  </si>
+  <si>
+    <t>ABC140</t>
+  </si>
+  <si>
+    <t>ABC141</t>
+  </si>
+  <si>
+    <t>ABC142</t>
+  </si>
+  <si>
+    <t>ABC143</t>
+  </si>
+  <si>
+    <t>ABC144</t>
+  </si>
+  <si>
+    <t>ABC145</t>
+  </si>
+  <si>
+    <t>ABC146</t>
+  </si>
+  <si>
+    <t>ABC147</t>
+  </si>
+  <si>
+    <t>ABC148</t>
+  </si>
+  <si>
+    <t>ABC149</t>
+  </si>
+  <si>
+    <t>ABC150</t>
+  </si>
+  <si>
+    <t>ABC151</t>
+  </si>
+  <si>
+    <t>ABC152</t>
+  </si>
+  <si>
+    <t>ABC153</t>
+  </si>
+  <si>
+    <t>ABC154</t>
+  </si>
+  <si>
+    <t>ABC155</t>
+  </si>
+  <si>
+    <t>ABC156</t>
+  </si>
+  <si>
+    <t>ABC157</t>
+  </si>
+  <si>
+    <t>ABC158</t>
+  </si>
+  <si>
+    <t>ABC159</t>
+  </si>
+  <si>
+    <t>ABC160</t>
+  </si>
+  <si>
+    <t>ABC161</t>
+  </si>
+  <si>
+    <t>ABC162</t>
+  </si>
+  <si>
+    <t>ABC163</t>
+  </si>
+  <si>
+    <t>ABC164</t>
+  </si>
+  <si>
+    <t>ABC165</t>
+  </si>
+  <si>
+    <t>ABC166</t>
+  </si>
+  <si>
+    <t>ABC167</t>
+  </si>
+  <si>
+    <t>ABC168</t>
+  </si>
+  <si>
+    <t>ABC169</t>
+  </si>
+  <si>
+    <t>ABC170</t>
+  </si>
+  <si>
+    <t>ABC171</t>
+  </si>
+  <si>
+    <t>ABC172</t>
+  </si>
+  <si>
+    <t>ABC173</t>
+  </si>
+  <si>
+    <t>ABC174</t>
+  </si>
+  <si>
+    <t>ABC175</t>
+  </si>
+  <si>
+    <t>ABC176</t>
+  </si>
+  <si>
+    <t>ABC177</t>
+  </si>
+  <si>
+    <t>ABC178</t>
+  </si>
+  <si>
+    <t>ABC179</t>
+  </si>
+  <si>
+    <t>ABC180</t>
+  </si>
+  <si>
+    <t>ABC181</t>
+  </si>
+  <si>
+    <t>ABC182</t>
+  </si>
+  <si>
+    <t>ABC183</t>
+  </si>
+  <si>
+    <t>ABC184</t>
+  </si>
+  <si>
+    <t>ABC185</t>
+  </si>
+  <si>
+    <t>ABC186</t>
+  </si>
+  <si>
+    <t>ABC187</t>
+  </si>
+  <si>
+    <t>ABC188</t>
+  </si>
+  <si>
+    <t>ABC189</t>
+  </si>
+  <si>
+    <t>ABC190</t>
+  </si>
+  <si>
+    <t>ABC191</t>
+  </si>
+  <si>
+    <t>ABC192</t>
+  </si>
+  <si>
+    <t>ABC193</t>
+  </si>
+  <si>
+    <t>ABC194</t>
+  </si>
+  <si>
+    <t>ABC195</t>
+  </si>
+  <si>
+    <t>ABC196</t>
+  </si>
+  <si>
+    <t>ABC197</t>
+  </si>
+  <si>
+    <t>ABC198</t>
+  </si>
+  <si>
+    <t>ABC199</t>
+  </si>
+  <si>
+    <t>ABC200</t>
   </si>
   <si>
     <t>Privado</t>
   </si>
   <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Bombardier Global 6000</t>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>Fumigación</t>
+  </si>
+  <si>
+    <t>Ambulancia Aérea</t>
+  </si>
+  <si>
+    <t>Vuelo Privado</t>
+  </si>
+  <si>
+    <t>Airbus A320</t>
+  </si>
+  <si>
+    <t>Gulfstream G550</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 300</t>
   </si>
   <si>
     <t>Boeing 737</t>
   </si>
   <si>
-    <t>Airbus A320</t>
-  </si>
-  <si>
-    <t>Gulfstream G550</t>
-  </si>
-  <si>
-    <t>Embraer Phenom 300</t>
-  </si>
-  <si>
     <t>Cessna Citation X</t>
   </si>
   <si>
+    <t>Antonov AN-225</t>
+  </si>
+  <si>
+    <t>Pilatus PC-12</t>
+  </si>
+  <si>
+    <t>Cessna Caravan</t>
+  </si>
+  <si>
+    <t>Beechcraft King Air</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>Gulfstream</t>
+  </si>
+  <si>
     <t>Embraer</t>
   </si>
   <si>
-    <t>Bombardier</t>
-  </si>
-  <si>
-    <t>Airbus</t>
-  </si>
-  <si>
     <t>Boeing</t>
   </si>
   <si>
-    <t>Gulfstream</t>
-  </si>
-  <si>
     <t>Cessna</t>
   </si>
   <si>
+    <t>Beechcraft</t>
+  </si>
+  <si>
+    <t>Pilatus</t>
+  </si>
+  <si>
+    <t>Antonov</t>
+  </si>
+  <si>
     <t>Owner 1</t>
   </si>
   <si>
-    <t>Owner 2</t>
-  </si>
-  <si>
     <t>Owner 3</t>
   </si>
   <si>
-    <t>Owner 4</t>
-  </si>
-  <si>
     <t>Owner 5</t>
   </si>
   <si>
-    <t>Owner 6</t>
-  </si>
-  <si>
     <t>Owner 7</t>
   </si>
   <si>
-    <t>Owner 8</t>
-  </si>
-  <si>
     <t>Owner 9</t>
   </si>
   <si>
-    <t>Owner 10</t>
-  </si>
-  <si>
     <t>Owner 11</t>
   </si>
   <si>
-    <t>Owner 12</t>
-  </si>
-  <si>
     <t>Owner 13</t>
   </si>
   <si>
-    <t>Owner 14</t>
-  </si>
-  <si>
     <t>Owner 15</t>
   </si>
   <si>
-    <t>Owner 16</t>
-  </si>
-  <si>
     <t>Owner 17</t>
   </si>
   <si>
-    <t>Owner 18</t>
-  </si>
-  <si>
     <t>Owner 19</t>
   </si>
   <si>
-    <t>Owner 20</t>
-  </si>
-  <si>
     <t>Owner 21</t>
   </si>
   <si>
-    <t>Owner 22</t>
-  </si>
-  <si>
     <t>Owner 23</t>
   </si>
   <si>
-    <t>Owner 24</t>
-  </si>
-  <si>
     <t>Owner 25</t>
   </si>
   <si>
-    <t>Owner 26</t>
-  </si>
-  <si>
     <t>Owner 27</t>
   </si>
   <si>
-    <t>Owner 28</t>
-  </si>
-  <si>
     <t>Owner 29</t>
   </si>
   <si>
-    <t>Owner 30</t>
-  </si>
-  <si>
     <t>Owner 31</t>
   </si>
   <si>
-    <t>Owner 32</t>
-  </si>
-  <si>
     <t>Owner 33</t>
   </si>
   <si>
-    <t>Owner 34</t>
-  </si>
-  <si>
     <t>Owner 35</t>
   </si>
   <si>
-    <t>Owner 36</t>
-  </si>
-  <si>
     <t>Owner 37</t>
   </si>
   <si>
-    <t>Owner 38</t>
-  </si>
-  <si>
     <t>Owner 39</t>
   </si>
   <si>
-    <t>Owner 40</t>
-  </si>
-  <si>
     <t>Owner 41</t>
   </si>
   <si>
-    <t>Owner 42</t>
-  </si>
-  <si>
     <t>Owner 43</t>
   </si>
   <si>
-    <t>Owner 44</t>
-  </si>
-  <si>
     <t>Owner 45</t>
   </si>
   <si>
-    <t>Owner 46</t>
-  </si>
-  <si>
     <t>Owner 47</t>
   </si>
   <si>
-    <t>Owner 48</t>
-  </si>
-  <si>
     <t>Owner 49</t>
   </si>
   <si>
-    <t>Owner 50</t>
-  </si>
-  <si>
     <t>Owner 51</t>
   </si>
   <si>
-    <t>Owner 52</t>
-  </si>
-  <si>
     <t>Owner 53</t>
   </si>
   <si>
-    <t>Owner 54</t>
-  </si>
-  <si>
     <t>Owner 55</t>
   </si>
   <si>
-    <t>Owner 56</t>
-  </si>
-  <si>
     <t>Owner 57</t>
   </si>
   <si>
-    <t>Owner 58</t>
-  </si>
-  <si>
     <t>Owner 59</t>
   </si>
   <si>
-    <t>Owner 60</t>
-  </si>
-  <si>
     <t>Owner 61</t>
   </si>
   <si>
-    <t>Owner 62</t>
-  </si>
-  <si>
     <t>Owner 63</t>
   </si>
   <si>
-    <t>Owner 64</t>
-  </si>
-  <si>
     <t>Owner 65</t>
   </si>
   <si>
-    <t>Owner 66</t>
-  </si>
-  <si>
     <t>Owner 67</t>
   </si>
   <si>
-    <t>Owner 68</t>
-  </si>
-  <si>
     <t>Owner 69</t>
   </si>
   <si>
-    <t>Owner 70</t>
-  </si>
-  <si>
     <t>Owner 71</t>
   </si>
   <si>
-    <t>Owner 72</t>
-  </si>
-  <si>
     <t>Owner 73</t>
   </si>
   <si>
-    <t>Owner 74</t>
-  </si>
-  <si>
     <t>Owner 75</t>
   </si>
   <si>
-    <t>Owner 76</t>
-  </si>
-  <si>
     <t>Owner 77</t>
   </si>
   <si>
-    <t>Owner 78</t>
-  </si>
-  <si>
     <t>Owner 79</t>
   </si>
   <si>
-    <t>Owner 80</t>
-  </si>
-  <si>
     <t>Owner 81</t>
   </si>
   <si>
-    <t>Owner 82</t>
-  </si>
-  <si>
     <t>Owner 83</t>
   </si>
   <si>
-    <t>Owner 84</t>
-  </si>
-  <si>
     <t>Owner 85</t>
   </si>
   <si>
-    <t>Owner 86</t>
-  </si>
-  <si>
     <t>Owner 87</t>
   </si>
   <si>
-    <t>Owner 88</t>
-  </si>
-  <si>
     <t>Owner 89</t>
   </si>
   <si>
-    <t>Owner 90</t>
-  </si>
-  <si>
     <t>Owner 91</t>
   </si>
   <si>
-    <t>Owner 92</t>
-  </si>
-  <si>
     <t>Owner 93</t>
   </si>
   <si>
-    <t>Owner 94</t>
-  </si>
-  <si>
     <t>Owner 95</t>
   </si>
   <si>
-    <t>Owner 96</t>
-  </si>
-  <si>
     <t>Owner 97</t>
   </si>
   <si>
-    <t>Owner 98</t>
-  </si>
-  <si>
     <t>Owner 99</t>
   </si>
   <si>
-    <t>Owner 100</t>
+    <t>Owner 148</t>
+  </si>
+  <si>
+    <t>Owner 145</t>
+  </si>
+  <si>
+    <t>Owner 119</t>
+  </si>
+  <si>
+    <t>Owner 117</t>
+  </si>
+  <si>
+    <t>Owner 149</t>
+  </si>
+  <si>
+    <t>Owner 112</t>
+  </si>
+  <si>
+    <t>Owner 104</t>
+  </si>
+  <si>
+    <t>Owner 151</t>
+  </si>
+  <si>
+    <t>Owner 197</t>
+  </si>
+  <si>
+    <t>Owner 152</t>
+  </si>
+  <si>
+    <t>Owner 140</t>
+  </si>
+  <si>
+    <t>Owner 158</t>
+  </si>
+  <si>
+    <t>Owner 192</t>
+  </si>
+  <si>
+    <t>Owner 135</t>
+  </si>
+  <si>
+    <t>Owner 113</t>
+  </si>
+  <si>
+    <t>Owner 142</t>
+  </si>
+  <si>
+    <t>Owner 159</t>
+  </si>
+  <si>
+    <t>Owner 172</t>
+  </si>
+  <si>
+    <t>Owner 125</t>
+  </si>
+  <si>
+    <t>Owner 186</t>
+  </si>
+  <si>
+    <t>Owner 146</t>
+  </si>
+  <si>
+    <t>Owner 110</t>
+  </si>
+  <si>
+    <t>Owner 198</t>
+  </si>
+  <si>
+    <t>Owner 179</t>
+  </si>
+  <si>
+    <t>Owner 162</t>
+  </si>
+  <si>
+    <t>Owner 182</t>
+  </si>
+  <si>
+    <t>Owner 184</t>
+  </si>
+  <si>
+    <t>Owner 173</t>
+  </si>
+  <si>
+    <t>Owner 122</t>
+  </si>
+  <si>
+    <t>Owner 138</t>
+  </si>
+  <si>
+    <t>Owner 143</t>
+  </si>
+  <si>
+    <t>Owner 156</t>
+  </si>
+  <si>
+    <t>Owner 166</t>
+  </si>
+  <si>
+    <t>Owner 103</t>
+  </si>
+  <si>
+    <t>Owner 183</t>
+  </si>
+  <si>
+    <t>Owner 144</t>
+  </si>
+  <si>
+    <t>Owner 107</t>
+  </si>
+  <si>
+    <t>Owner 190</t>
+  </si>
+  <si>
+    <t>Owner 136</t>
+  </si>
+  <si>
+    <t>Owner 195</t>
+  </si>
+  <si>
+    <t>Owner 120</t>
+  </si>
+  <si>
+    <t>Owner 131</t>
+  </si>
+  <si>
+    <t>Owner 196</t>
+  </si>
+  <si>
+    <t>Owner 114</t>
+  </si>
+  <si>
+    <t>Owner 147</t>
+  </si>
+  <si>
+    <t>Owner 121</t>
+  </si>
+  <si>
+    <t>Owner 139</t>
+  </si>
+  <si>
+    <t>Owner 105</t>
+  </si>
+  <si>
+    <t>Owner 157</t>
+  </si>
+  <si>
+    <t>Owner 193</t>
+  </si>
+  <si>
+    <t>Owner 126</t>
+  </si>
+  <si>
+    <t>Owner 111</t>
+  </si>
+  <si>
+    <t>Owner 102</t>
+  </si>
+  <si>
+    <t>Owner 163</t>
+  </si>
+  <si>
+    <t>Owner 189</t>
+  </si>
+  <si>
+    <t>Owner 127</t>
+  </si>
+  <si>
+    <t>Owner 150</t>
+  </si>
+  <si>
+    <t>Owner 194</t>
+  </si>
+  <si>
+    <t>Owner 177</t>
+  </si>
+  <si>
+    <t>Owner 168</t>
+  </si>
+  <si>
+    <t>Owner 132</t>
+  </si>
+  <si>
+    <t>Owner 155</t>
+  </si>
+  <si>
+    <t>Owner 161</t>
+  </si>
+  <si>
+    <t>Owner 180</t>
+  </si>
+  <si>
+    <t>VERDADERO</t>
+  </si>
+  <si>
+    <t>FALSO</t>
+  </si>
+  <si>
+    <t>peso_maximo_carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing 747 </t>
+  </si>
+  <si>
+    <t>Boeing 747</t>
   </si>
 </sst>
 </file>
@@ -1062,21 +1306,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
@@ -1105,2976 +1347,2976 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="F2">
-        <v>190</v>
+        <v>2842</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="H2">
-        <v>1800</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I2" t="s">
+        <v>296</v>
       </c>
       <c r="J2">
-        <v>334</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="K2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F3">
-        <v>980</v>
+        <v>8561</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>5500</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>296</v>
       </c>
       <c r="J3">
-        <v>346</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="K3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4">
+        <v>3436</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>2975</v>
-      </c>
-      <c r="G4">
-        <v>180</v>
-      </c>
-      <c r="H4">
-        <v>5000</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>297</v>
       </c>
       <c r="J4">
-        <v>434</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="F5">
-        <v>6102</v>
+        <v>2065</v>
       </c>
       <c r="G5">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H5">
-        <v>5000</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>296</v>
       </c>
       <c r="J5">
-        <v>446</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="K5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="F6">
-        <v>1184</v>
+        <v>6166</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>5500</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>296</v>
       </c>
       <c r="J6">
-        <v>481</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="F7">
-        <v>3327</v>
+        <v>402</v>
       </c>
       <c r="G7">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H7">
-        <v>5000</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I7" t="s">
+        <v>296</v>
       </c>
       <c r="J7">
-        <v>307</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8">
+        <v>9806</v>
+      </c>
+      <c r="G8">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8">
-        <v>3394</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
       <c r="H8">
-        <v>5500</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I8" t="s">
+        <v>297</v>
       </c>
       <c r="J8">
-        <v>248</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="K8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="F9">
-        <v>8319</v>
+        <v>9026</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>5500</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>297</v>
       </c>
       <c r="J9">
-        <v>165</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="F10">
-        <v>1816</v>
+        <v>1419</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H10">
-        <v>5500</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>296</v>
       </c>
       <c r="J10">
-        <v>480</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="F11">
-        <v>5854</v>
+        <v>703</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>1500</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>296</v>
       </c>
       <c r="J11">
-        <v>471</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="K11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="F12">
-        <v>6709</v>
+        <v>8711</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H12">
-        <v>5000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I12" t="s">
+        <v>296</v>
       </c>
       <c r="J12">
-        <v>334</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F13">
-        <v>569</v>
+        <v>5976</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>1800</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I13" t="s">
+        <v>296</v>
       </c>
       <c r="J13">
-        <v>29</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="K13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F14">
-        <v>5442</v>
+        <v>7841</v>
       </c>
       <c r="G14">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>5000</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>297</v>
       </c>
       <c r="J14">
-        <v>246</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="K14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="F15">
-        <v>1895</v>
+        <v>4638</v>
       </c>
       <c r="G15">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H15">
-        <v>5000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>296</v>
       </c>
       <c r="J15">
-        <v>105</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="K15" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F16">
-        <v>2733</v>
+        <v>2969</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>1800</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>296</v>
       </c>
       <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="K16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="F17">
-        <v>3863</v>
+        <v>3680</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H17">
-        <v>5000</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I17" t="s">
+        <v>296</v>
       </c>
       <c r="J17">
-        <v>80</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F18">
-        <v>7455</v>
+        <v>3117</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>296</v>
       </c>
       <c r="J18">
-        <v>132</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F19">
-        <v>4014</v>
+        <v>973</v>
       </c>
       <c r="G19">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>5000</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>297</v>
       </c>
       <c r="J19">
-        <v>284</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>1686</v>
+        <v>2811</v>
       </c>
       <c r="G20">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H20">
-        <v>5500</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>297</v>
       </c>
       <c r="J20">
-        <v>387</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="K20" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="F21">
-        <v>3009</v>
+        <v>8157</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>1800</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>297</v>
       </c>
       <c r="J21">
-        <v>137</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22">
+        <v>9985</v>
+      </c>
+      <c r="G22">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22">
-        <v>7806</v>
-      </c>
-      <c r="G22">
-        <v>180</v>
-      </c>
       <c r="H22">
-        <v>5000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I22" t="s">
+        <v>297</v>
       </c>
       <c r="J22">
-        <v>183</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F23">
-        <v>154</v>
+        <v>9169</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>1800</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I23" t="s">
+        <v>297</v>
       </c>
       <c r="J23">
-        <v>400</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="F24">
-        <v>1409</v>
+        <v>3540</v>
       </c>
       <c r="G24">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>5500</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>297</v>
       </c>
       <c r="J24">
-        <v>329</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="K24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F25">
-        <v>784</v>
+        <v>4821</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H25">
-        <v>1000</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>297</v>
       </c>
       <c r="J25">
-        <v>272</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="K25" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="F26">
-        <v>8096</v>
+        <v>9959</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>1200</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>297</v>
       </c>
       <c r="J26">
-        <v>339</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="F27">
-        <v>7560</v>
+        <v>4185</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H27">
-        <v>5500</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I27" t="s">
+        <v>297</v>
       </c>
       <c r="J27">
-        <v>471</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="K27" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="F28">
-        <v>7343</v>
+        <v>3650</v>
       </c>
       <c r="G28">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>5000</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I28" t="s">
+        <v>296</v>
       </c>
       <c r="J28">
-        <v>68</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
+        <v>464</v>
+      </c>
+      <c r="K28" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="F29">
-        <v>7206</v>
+        <v>2418</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1200</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>297</v>
       </c>
       <c r="J29">
-        <v>33</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="F30">
-        <v>5596</v>
+        <v>7059</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H30">
-        <v>5000</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>296</v>
       </c>
       <c r="J30">
-        <v>261</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="F31">
-        <v>5801</v>
+        <v>2576</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>5000</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
       </c>
       <c r="J31">
-        <v>52</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
+        <v>456</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="F32">
-        <v>2806</v>
+        <v>4875</v>
       </c>
       <c r="G32">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H32">
-        <v>5500</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
       </c>
       <c r="J32">
-        <v>449</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F33">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>1000</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
       </c>
       <c r="J33">
-        <v>204</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F34">
-        <v>5986</v>
+        <v>9347</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>1000</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
       </c>
       <c r="J34">
-        <v>125</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
+        <v>445</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="F35">
-        <v>1841</v>
+        <v>167</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H35">
-        <v>1000</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
       </c>
       <c r="J35">
-        <v>234</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="F36">
-        <v>8716</v>
+        <v>8986</v>
       </c>
       <c r="G36">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>1000</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
       </c>
       <c r="J36">
-        <v>42</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37">
+        <v>6257</v>
+      </c>
+      <c r="G37">
         <v>122</v>
       </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37">
-        <v>6971</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
       <c r="H37">
-        <v>1000</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
       </c>
       <c r="J37">
-        <v>239</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="F38">
-        <v>5625</v>
+        <v>551</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>1200</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
       </c>
       <c r="J38">
-        <v>458</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="F39">
-        <v>2950</v>
+        <v>8561</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>1200</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
       </c>
       <c r="J39">
-        <v>370</v>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="F40">
-        <v>7992</v>
+        <v>2446</v>
       </c>
       <c r="G40">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="H40">
-        <v>1800</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
       </c>
       <c r="J40">
-        <v>110</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="K40" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F41">
-        <v>4780</v>
+        <v>4973</v>
       </c>
       <c r="G41">
         <v>9</v>
       </c>
       <c r="H41">
-        <v>1000</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>297</v>
       </c>
       <c r="J41">
-        <v>248</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
+        <v>393</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="F42">
-        <v>2368</v>
+        <v>8596</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H42">
-        <v>5500</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
       </c>
       <c r="J42">
-        <v>150</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="F43">
-        <v>6655</v>
+        <v>8313</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43">
-        <v>1800</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
       </c>
       <c r="J43">
-        <v>182</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="F44">
-        <v>8173</v>
+        <v>1548</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>5500</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
       </c>
       <c r="J44">
-        <v>335</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
+        <v>368</v>
+      </c>
+      <c r="K44" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="F45">
-        <v>4495</v>
+        <v>7427</v>
       </c>
       <c r="G45">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H45">
-        <v>5000</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
       </c>
       <c r="J45">
-        <v>94</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K45" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="F46">
-        <v>9163</v>
+        <v>2639</v>
       </c>
       <c r="G46">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>5000</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
       </c>
       <c r="J46">
-        <v>458</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="K46" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="F47">
-        <v>6002</v>
+        <v>3199</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="H47">
-        <v>1200</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I47" t="s">
+        <v>296</v>
       </c>
       <c r="J47">
-        <v>373</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="K47" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="F48">
-        <v>6614</v>
+        <v>5576</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>1500</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
       </c>
       <c r="J48">
-        <v>399</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K48" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="F49">
-        <v>9358</v>
+        <v>5536</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>1500</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I49" t="s">
+        <v>297</v>
       </c>
       <c r="J49">
-        <v>7</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="K49" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F50">
-        <v>5919</v>
+        <v>9130</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="H50">
-        <v>1500</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>297</v>
       </c>
       <c r="J50">
-        <v>387</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
+        <v>460</v>
+      </c>
+      <c r="K50" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F51">
-        <v>853</v>
+        <v>5641</v>
       </c>
       <c r="G51">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>5000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
       </c>
       <c r="J51">
-        <v>359</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="K51" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="F52">
-        <v>4146</v>
+        <v>8430</v>
       </c>
       <c r="G52">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="H52">
-        <v>1200</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
       </c>
       <c r="J52">
-        <v>387</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F53">
-        <v>3769</v>
+        <v>9265</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>1500</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>296</v>
       </c>
       <c r="J53">
-        <v>183</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="F54">
-        <v>574</v>
+        <v>2384</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H54">
-        <v>1000</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I54" t="s">
+        <v>296</v>
       </c>
       <c r="J54">
-        <v>280</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="F55">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>1500</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I55" t="s">
+        <v>297</v>
       </c>
       <c r="J55">
-        <v>194</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="F56">
-        <v>6293</v>
+        <v>2181</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H56">
-        <v>1500</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I56" t="s">
+        <v>296</v>
       </c>
       <c r="J56">
-        <v>351</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="K56" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="F57">
-        <v>6457</v>
+        <v>704</v>
       </c>
       <c r="G57">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H57">
-        <v>5000</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I57" t="s">
+        <v>296</v>
       </c>
       <c r="J57">
-        <v>194</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="F58">
-        <v>7509</v>
+        <v>2373</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="H58">
-        <v>1800</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I58" t="s">
+        <v>297</v>
       </c>
       <c r="J58">
-        <v>154</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="K58" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F59">
-        <v>9907</v>
+        <v>4646</v>
       </c>
       <c r="G59">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>5500</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I59" t="s">
+        <v>297</v>
       </c>
       <c r="J59">
-        <v>92</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="K59" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="F60">
-        <v>4777</v>
+        <v>7967</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="H60">
-        <v>1000</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+        <v>12000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
       </c>
       <c r="J60">
-        <v>159</v>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
+        <v>458</v>
+      </c>
+      <c r="K60" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="F61">
-        <v>3854</v>
+        <v>858</v>
       </c>
       <c r="G61">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H61">
-        <v>5000</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I61" t="s">
+        <v>296</v>
       </c>
       <c r="J61">
-        <v>433</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="F62">
-        <v>2491</v>
+        <v>6445</v>
       </c>
       <c r="G62">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H62">
-        <v>1500</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I62" t="s">
+        <v>297</v>
       </c>
       <c r="J62">
-        <v>60</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="K62" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="F63">
-        <v>3124</v>
+        <v>4851</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>1200</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I63" t="s">
+        <v>297</v>
       </c>
       <c r="J63">
-        <v>121</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F64">
-        <v>5691</v>
+        <v>2823</v>
       </c>
       <c r="G64">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H64">
-        <v>5000</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I64" t="s">
+        <v>297</v>
       </c>
       <c r="J64">
-        <v>50</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K64" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="F65">
-        <v>3051</v>
+        <v>9118</v>
       </c>
       <c r="G65">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>5000</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I65" t="s">
+        <v>296</v>
       </c>
       <c r="J65">
-        <v>402</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="K65" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>8983</v>
       </c>
       <c r="G66">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H66">
-        <v>5000</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I66" t="s">
+        <v>297</v>
       </c>
       <c r="J66">
-        <v>276</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K66" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F67">
-        <v>5222</v>
+        <v>9241</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="H67">
-        <v>1200</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I67" t="s">
+        <v>296</v>
       </c>
       <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="K67" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F68">
-        <v>5315</v>
+        <v>3788</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>5500</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I68" t="s">
+        <v>297</v>
       </c>
       <c r="J68">
-        <v>465</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="K68" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="F69">
-        <v>4869</v>
+        <v>321</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="H69">
-        <v>1000</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I69" t="s">
+        <v>296</v>
       </c>
       <c r="J69">
-        <v>91</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="F70">
-        <v>876</v>
+        <v>8443</v>
       </c>
       <c r="G70">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>1800</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>296</v>
       </c>
       <c r="J70">
-        <v>169</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
+        <v>395</v>
+      </c>
+      <c r="K70" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F71">
-        <v>9183</v>
+        <v>6376</v>
       </c>
       <c r="G71">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>5000</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>297</v>
       </c>
       <c r="J71">
-        <v>316</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
+        <v>366</v>
+      </c>
+      <c r="K71" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="F72">
-        <v>7027</v>
+        <v>1026</v>
       </c>
       <c r="G72">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="H72">
-        <v>5500</v>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I72" t="s">
+        <v>297</v>
       </c>
       <c r="J72">
-        <v>21</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="K72" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="F73">
-        <v>4142</v>
+        <v>2313</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73">
-        <v>1000</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I73" t="s">
+        <v>296</v>
       </c>
       <c r="J73">
-        <v>404</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
+        <v>450</v>
+      </c>
+      <c r="K73" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="F74">
-        <v>6966</v>
+        <v>8193</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="H74">
-        <v>1000</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I74" t="s">
+        <v>297</v>
       </c>
       <c r="J74">
-        <v>325</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="K74" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="F75">
-        <v>7079</v>
+        <v>4170</v>
       </c>
       <c r="G75">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="H75">
-        <v>5500</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I75" t="s">
+        <v>296</v>
       </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
+        <v>491</v>
+      </c>
+      <c r="K75" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F76">
-        <v>7987</v>
+        <v>3644</v>
       </c>
       <c r="G76">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="H76">
-        <v>5000</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I76" t="s">
+        <v>297</v>
       </c>
       <c r="J76">
-        <v>132</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="K76" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F77">
-        <v>6799</v>
+        <v>4055</v>
       </c>
       <c r="G77">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="H77">
-        <v>5500</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I77" t="s">
+        <v>297</v>
       </c>
       <c r="J77">
-        <v>232</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="K77" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="F78">
-        <v>4465</v>
+        <v>4122</v>
       </c>
       <c r="G78">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H78">
-        <v>1500</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I78" t="s">
+        <v>297</v>
       </c>
       <c r="J78">
-        <v>11</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="F79">
-        <v>635</v>
+        <v>7481</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H79">
-        <v>1200</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I79" t="s">
+        <v>297</v>
       </c>
       <c r="J79">
-        <v>345</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="K79" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="F80">
-        <v>1693</v>
+        <v>8694</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H80">
-        <v>1500</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I80" t="s">
+        <v>296</v>
       </c>
       <c r="J80">
-        <v>45</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="K80" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="F81">
-        <v>9874</v>
+        <v>3632</v>
       </c>
       <c r="G81">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="H81">
         <v>1200</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="I81" t="s">
+        <v>296</v>
       </c>
       <c r="J81">
-        <v>33</v>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="K81" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F82">
-        <v>4752</v>
+        <v>1157</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>1000</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I82" t="s">
+        <v>297</v>
       </c>
       <c r="J82">
-        <v>432</v>
-      </c>
-      <c r="K82" t="b">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="K82" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F83">
-        <v>8311</v>
+        <v>3232</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="H83">
-        <v>1000</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
+        <v>12000</v>
+      </c>
+      <c r="I83" t="s">
+        <v>297</v>
       </c>
       <c r="J83">
-        <v>77</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="K83" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="F84">
-        <v>830</v>
+        <v>2507</v>
       </c>
       <c r="G84">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H84">
-        <v>5500</v>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I84" t="s">
+        <v>297</v>
       </c>
       <c r="J84">
-        <v>217</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="K84" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F85">
-        <v>5177</v>
+        <v>9722</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H85">
-        <v>1800</v>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I85" t="s">
+        <v>296</v>
       </c>
       <c r="J85">
-        <v>300</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="K85" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F86">
-        <v>9561</v>
+        <v>4262</v>
       </c>
       <c r="G86">
         <v>12</v>
@@ -4082,542 +4324,2293 @@
       <c r="H86">
         <v>1200</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
+      <c r="I86" t="s">
+        <v>296</v>
       </c>
       <c r="J86">
-        <v>410</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="K86" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F87">
-        <v>8932</v>
+        <v>5760</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H87">
-        <v>1800</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I87" t="s">
+        <v>296</v>
       </c>
       <c r="J87">
-        <v>72</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="K87" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="F88">
-        <v>8308</v>
+        <v>6348</v>
       </c>
       <c r="G88">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H88">
-        <v>5000</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I88" t="s">
+        <v>296</v>
       </c>
       <c r="J88">
-        <v>281</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="K88" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F89">
-        <v>5949</v>
+        <v>6511</v>
       </c>
       <c r="G89">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="H89">
-        <v>1500</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I89" t="s">
+        <v>296</v>
       </c>
       <c r="J89">
-        <v>248</v>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
+        <v>385</v>
+      </c>
+      <c r="K89" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F90">
-        <v>2838</v>
+        <v>626</v>
       </c>
       <c r="G90">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H90">
-        <v>1500</v>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I90" t="s">
+        <v>297</v>
       </c>
       <c r="J90">
-        <v>46</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="K90" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F91">
-        <v>1150</v>
+        <v>4959</v>
       </c>
       <c r="G91">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H91">
-        <v>5500</v>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I91" t="s">
+        <v>297</v>
       </c>
       <c r="J91">
-        <v>120</v>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="K91" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="F92">
-        <v>7560</v>
+        <v>3229</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>1500</v>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I92" t="s">
+        <v>297</v>
       </c>
       <c r="J92">
-        <v>213</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="K92" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="F93">
-        <v>1931</v>
+        <v>8700</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H93">
-        <v>1800</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>296</v>
       </c>
       <c r="J93">
-        <v>238</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K93" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="F94">
-        <v>9204</v>
+        <v>9427</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>1500</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I94" t="s">
+        <v>297</v>
       </c>
       <c r="J94">
-        <v>55</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="K94" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="F95">
-        <v>1664</v>
+        <v>7469</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="H95">
-        <v>1200</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I95" t="s">
+        <v>297</v>
       </c>
       <c r="J95">
-        <v>349</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="K95" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F96">
-        <v>1081</v>
+        <v>8947</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H96">
         <v>1200</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="I96" t="s">
+        <v>297</v>
       </c>
       <c r="J96">
-        <v>106</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
+        <v>328</v>
+      </c>
+      <c r="K96" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F97">
-        <v>512</v>
+        <v>1488</v>
       </c>
       <c r="G97">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="H97">
-        <v>5500</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I97" t="s">
+        <v>297</v>
       </c>
       <c r="J97">
-        <v>318</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="K97" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F98">
-        <v>7805</v>
+        <v>3563</v>
       </c>
       <c r="G98">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>5500</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I98" t="s">
+        <v>296</v>
       </c>
       <c r="J98">
-        <v>47</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="K98" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="F99">
-        <v>5237</v>
+        <v>2600</v>
       </c>
       <c r="G99">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H99">
-        <v>5000</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I99" t="s">
+        <v>297</v>
       </c>
       <c r="J99">
-        <v>60</v>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="K99" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="F100">
-        <v>559</v>
+        <v>3963</v>
       </c>
       <c r="G100">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H100">
-        <v>1500</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I100" t="s">
+        <v>297</v>
       </c>
       <c r="J100">
-        <v>336</v>
-      </c>
-      <c r="K100" t="b">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="K100" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101">
+        <v>1900</v>
+      </c>
+      <c r="G101">
+        <v>169</v>
+      </c>
+      <c r="H101">
+        <v>250000</v>
+      </c>
+      <c r="I101" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101">
+        <v>307</v>
+      </c>
+      <c r="K101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+      <c r="F102">
+        <v>8990</v>
+      </c>
+      <c r="G102">
+        <v>118</v>
+      </c>
+      <c r="H102">
+        <v>12000</v>
+      </c>
+      <c r="I102" t="s">
+        <v>296</v>
+      </c>
+      <c r="J102">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" t="s">
+        <v>273</v>
+      </c>
+      <c r="F103">
+        <v>531</v>
+      </c>
+      <c r="G103">
+        <v>96</v>
+      </c>
+      <c r="H103">
+        <v>1200</v>
+      </c>
+      <c r="I103" t="s">
+        <v>297</v>
+      </c>
+      <c r="J103">
+        <v>223</v>
+      </c>
+      <c r="K103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104">
+        <v>7879</v>
+      </c>
+      <c r="G104">
+        <v>151</v>
+      </c>
+      <c r="H104">
+        <v>1400</v>
+      </c>
+      <c r="I104" t="s">
+        <v>296</v>
+      </c>
+      <c r="J104">
+        <v>338</v>
+      </c>
+      <c r="K104" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105">
+        <v>2105</v>
+      </c>
+      <c r="G105">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <v>250000</v>
+      </c>
+      <c r="I105" t="s">
+        <v>296</v>
+      </c>
+      <c r="J105">
+        <v>390</v>
+      </c>
+      <c r="K105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" t="s">
+        <v>255</v>
+      </c>
+      <c r="F106">
+        <v>4070</v>
+      </c>
+      <c r="G106">
+        <v>163</v>
+      </c>
+      <c r="H106">
+        <v>1400</v>
+      </c>
+      <c r="I106" t="s">
+        <v>296</v>
+      </c>
+      <c r="J106">
+        <v>316</v>
+      </c>
+      <c r="K106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107">
+        <v>5719</v>
+      </c>
+      <c r="G107">
+        <v>116</v>
+      </c>
+      <c r="H107">
+        <v>1400</v>
+      </c>
+      <c r="I107" t="s">
+        <v>297</v>
+      </c>
+      <c r="J107">
+        <v>386</v>
+      </c>
+      <c r="K107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" t="s">
+        <v>258</v>
+      </c>
+      <c r="F108">
+        <v>6437</v>
+      </c>
+      <c r="G108">
+        <v>13</v>
+      </c>
+      <c r="H108">
+        <v>1400</v>
+      </c>
+      <c r="I108" t="s">
+        <v>297</v>
+      </c>
+      <c r="J108">
+        <v>286</v>
+      </c>
+      <c r="K108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="D101" t="s">
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" t="s">
+        <v>275</v>
+      </c>
+      <c r="F109">
+        <v>4401</v>
+      </c>
+      <c r="G109">
+        <v>171</v>
+      </c>
+      <c r="H109">
+        <v>1400</v>
+      </c>
+      <c r="I109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J109">
+        <v>120</v>
+      </c>
+      <c r="K109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110">
+        <v>5394</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110">
+        <v>1400</v>
+      </c>
+      <c r="I110" t="s">
+        <v>297</v>
+      </c>
+      <c r="J110">
+        <v>88</v>
+      </c>
+      <c r="K110" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="E101" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101">
-        <v>3672</v>
-      </c>
-      <c r="G101">
-        <v>9</v>
-      </c>
-      <c r="H101">
-        <v>1000</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101">
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" t="s">
+        <v>276</v>
+      </c>
+      <c r="F111">
+        <v>5117</v>
+      </c>
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>1400</v>
+      </c>
+      <c r="I111" t="s">
+        <v>296</v>
+      </c>
+      <c r="J111">
+        <v>367</v>
+      </c>
+      <c r="K111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112">
+        <v>1511</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>1200</v>
+      </c>
+      <c r="I112" t="s">
+        <v>297</v>
+      </c>
+      <c r="J112">
+        <v>322</v>
+      </c>
+      <c r="K112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113">
+        <v>9703</v>
+      </c>
+      <c r="G113">
+        <v>167</v>
+      </c>
+      <c r="H113">
+        <v>1200</v>
+      </c>
+      <c r="I113" t="s">
+        <v>297</v>
+      </c>
+      <c r="J113">
+        <v>385</v>
+      </c>
+      <c r="K113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" t="s">
+        <v>278</v>
+      </c>
+      <c r="F114">
+        <v>5710</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1400</v>
+      </c>
+      <c r="I114" t="s">
+        <v>296</v>
+      </c>
+      <c r="J114">
+        <v>475</v>
+      </c>
+      <c r="K114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" t="s">
+        <v>279</v>
+      </c>
+      <c r="F115">
+        <v>7801</v>
+      </c>
+      <c r="G115">
+        <v>184</v>
+      </c>
+      <c r="H115">
+        <v>1200</v>
+      </c>
+      <c r="I115" t="s">
+        <v>296</v>
+      </c>
+      <c r="J115">
+        <v>155</v>
+      </c>
+      <c r="K115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" t="s">
+        <v>280</v>
+      </c>
+      <c r="F116">
+        <v>102</v>
+      </c>
+      <c r="G116">
+        <v>170</v>
+      </c>
+      <c r="H116">
+        <v>12000</v>
+      </c>
+      <c r="I116" t="s">
+        <v>297</v>
+      </c>
+      <c r="J116">
+        <v>126</v>
+      </c>
+      <c r="K116" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117">
+        <v>8923</v>
+      </c>
+      <c r="G117">
+        <v>107</v>
+      </c>
+      <c r="H117">
+        <v>250000</v>
+      </c>
+      <c r="I117" t="s">
+        <v>296</v>
+      </c>
+      <c r="J117">
+        <v>379</v>
+      </c>
+      <c r="K117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118">
+        <v>6530</v>
+      </c>
+      <c r="G118">
+        <v>39</v>
+      </c>
+      <c r="H118">
+        <v>250000</v>
+      </c>
+      <c r="I118" t="s">
+        <v>296</v>
+      </c>
+      <c r="J118">
+        <v>107</v>
+      </c>
+      <c r="K118" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+      <c r="F119">
+        <v>9843</v>
+      </c>
+      <c r="G119">
+        <v>171</v>
+      </c>
+      <c r="H119">
+        <v>250000</v>
+      </c>
+      <c r="I119" t="s">
+        <v>297</v>
+      </c>
+      <c r="J119">
+        <v>465</v>
+      </c>
+      <c r="K119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120">
+        <v>8280</v>
+      </c>
+      <c r="G120">
+        <v>108</v>
+      </c>
+      <c r="H120">
+        <v>1200</v>
+      </c>
+      <c r="I120" t="s">
+        <v>297</v>
+      </c>
+      <c r="J120">
+        <v>214</v>
+      </c>
+      <c r="K120" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121">
+        <v>3408</v>
+      </c>
+      <c r="G121">
+        <v>172</v>
+      </c>
+      <c r="H121">
+        <v>1200</v>
+      </c>
+      <c r="I121" t="s">
+        <v>297</v>
+      </c>
+      <c r="J121">
+        <v>320</v>
+      </c>
+      <c r="K121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122">
+        <v>4701</v>
+      </c>
+      <c r="G122">
+        <v>41</v>
+      </c>
+      <c r="H122">
+        <v>1400</v>
+      </c>
+      <c r="I122" t="s">
+        <v>297</v>
+      </c>
+      <c r="J122">
+        <v>117</v>
+      </c>
+      <c r="K122" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123">
+        <v>670</v>
+      </c>
+      <c r="G123">
+        <v>113</v>
+      </c>
+      <c r="H123">
+        <v>12000</v>
+      </c>
+      <c r="I123" t="s">
+        <v>296</v>
+      </c>
+      <c r="J123">
+        <v>108</v>
+      </c>
+      <c r="K123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124">
+        <v>3257</v>
+      </c>
+      <c r="G124">
         <v>25</v>
       </c>
-      <c r="K101" t="b">
-        <v>0</v>
+      <c r="H124">
+        <v>250000</v>
+      </c>
+      <c r="I124" t="s">
+        <v>296</v>
+      </c>
+      <c r="J124">
+        <v>188</v>
+      </c>
+      <c r="K124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125">
+        <v>4765</v>
+      </c>
+      <c r="G125">
+        <v>199</v>
+      </c>
+      <c r="H125">
+        <v>250000</v>
+      </c>
+      <c r="I125" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125">
+        <v>186</v>
+      </c>
+      <c r="K125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126">
+        <v>5100</v>
+      </c>
+      <c r="G126">
+        <v>116</v>
+      </c>
+      <c r="H126">
+        <v>1400</v>
+      </c>
+      <c r="I126" t="s">
+        <v>296</v>
+      </c>
+      <c r="J126">
+        <v>382</v>
+      </c>
+      <c r="K126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F127">
+        <v>1820</v>
+      </c>
+      <c r="G127">
+        <v>300</v>
+      </c>
+      <c r="H127">
+        <v>12000</v>
+      </c>
+      <c r="I127" t="s">
+        <v>297</v>
+      </c>
+      <c r="J127">
+        <v>471</v>
+      </c>
+      <c r="K127" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" t="s">
+        <v>300</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F128">
+        <v>6456</v>
+      </c>
+      <c r="G128">
+        <v>114</v>
+      </c>
+      <c r="H128">
+        <v>12000</v>
+      </c>
+      <c r="I128" t="s">
+        <v>296</v>
+      </c>
+      <c r="J128">
+        <v>251</v>
+      </c>
+      <c r="K128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" t="s">
+        <v>181</v>
+      </c>
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129">
+        <v>4372</v>
+      </c>
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
+        <v>1200</v>
+      </c>
+      <c r="I129" t="s">
+        <v>296</v>
+      </c>
+      <c r="J129">
+        <v>494</v>
+      </c>
+      <c r="K129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" t="s">
+        <v>287</v>
+      </c>
+      <c r="F130">
+        <v>2268</v>
+      </c>
+      <c r="G130">
+        <v>78</v>
+      </c>
+      <c r="H130">
+        <v>1400</v>
+      </c>
+      <c r="I130" t="s">
+        <v>297</v>
+      </c>
+      <c r="J130">
+        <v>477</v>
+      </c>
+      <c r="K130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131">
+        <v>6631</v>
+      </c>
+      <c r="G131">
+        <v>34</v>
+      </c>
+      <c r="H131">
+        <v>1200</v>
+      </c>
+      <c r="I131" t="s">
+        <v>297</v>
+      </c>
+      <c r="J131">
+        <v>355</v>
+      </c>
+      <c r="K131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132">
+        <v>8289</v>
+      </c>
+      <c r="G132">
+        <v>109</v>
+      </c>
+      <c r="H132">
+        <v>12000</v>
+      </c>
+      <c r="I132" t="s">
+        <v>296</v>
+      </c>
+      <c r="J132">
+        <v>123</v>
+      </c>
+      <c r="K132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133">
+        <v>9758</v>
+      </c>
+      <c r="G133">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>1400</v>
+      </c>
+      <c r="I133" t="s">
+        <v>296</v>
+      </c>
+      <c r="J133">
+        <v>188</v>
+      </c>
+      <c r="K133" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134">
+        <v>8710</v>
+      </c>
+      <c r="G134">
+        <v>21</v>
+      </c>
+      <c r="H134">
+        <v>250000</v>
+      </c>
+      <c r="I134" t="s">
+        <v>296</v>
+      </c>
+      <c r="J134">
+        <v>441</v>
+      </c>
+      <c r="K134" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" t="s">
+        <v>181</v>
+      </c>
+      <c r="E135" t="s">
+        <v>271</v>
+      </c>
+      <c r="F135">
+        <v>4310</v>
+      </c>
+      <c r="G135">
+        <v>56</v>
+      </c>
+      <c r="H135">
+        <v>1400</v>
+      </c>
+      <c r="I135" t="s">
+        <v>296</v>
+      </c>
+      <c r="J135">
+        <v>375</v>
+      </c>
+      <c r="K135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136">
+        <v>7971</v>
+      </c>
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="H136">
+        <v>1400</v>
+      </c>
+      <c r="I136" t="s">
+        <v>296</v>
+      </c>
+      <c r="J136">
+        <v>330</v>
+      </c>
+      <c r="K136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137">
+        <v>7345</v>
+      </c>
+      <c r="G137">
+        <v>47</v>
+      </c>
+      <c r="H137">
+        <v>12000</v>
+      </c>
+      <c r="I137" t="s">
+        <v>297</v>
+      </c>
+      <c r="J137">
+        <v>61</v>
+      </c>
+      <c r="K137" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" t="s">
+        <v>287</v>
+      </c>
+      <c r="F138">
+        <v>1078</v>
+      </c>
+      <c r="G138">
+        <v>98</v>
+      </c>
+      <c r="H138">
+        <v>250000</v>
+      </c>
+      <c r="I138" t="s">
+        <v>297</v>
+      </c>
+      <c r="J138">
+        <v>346</v>
+      </c>
+      <c r="K138" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" t="s">
+        <v>237</v>
+      </c>
+      <c r="F139">
+        <v>3947</v>
+      </c>
+      <c r="G139">
+        <v>194</v>
+      </c>
+      <c r="H139">
+        <v>250000</v>
+      </c>
+      <c r="I139" t="s">
+        <v>296</v>
+      </c>
+      <c r="J139">
+        <v>278</v>
+      </c>
+      <c r="K139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" t="s">
+        <v>179</v>
+      </c>
+      <c r="E140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F140">
+        <v>234</v>
+      </c>
+      <c r="G140">
+        <v>8</v>
+      </c>
+      <c r="H140">
+        <v>1400</v>
+      </c>
+      <c r="I140" t="s">
+        <v>297</v>
+      </c>
+      <c r="J140">
+        <v>54</v>
+      </c>
+      <c r="K140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" t="s">
+        <v>290</v>
+      </c>
+      <c r="F141">
+        <v>7869</v>
+      </c>
+      <c r="G141">
+        <v>144</v>
+      </c>
+      <c r="H141">
+        <v>250000</v>
+      </c>
+      <c r="I141" t="s">
+        <v>297</v>
+      </c>
+      <c r="J141">
+        <v>147</v>
+      </c>
+      <c r="K141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142">
+        <v>4347</v>
+      </c>
+      <c r="G142">
+        <v>182</v>
+      </c>
+      <c r="H142">
+        <v>1200</v>
+      </c>
+      <c r="I142" t="s">
+        <v>297</v>
+      </c>
+      <c r="J142">
+        <v>245</v>
+      </c>
+      <c r="K142" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" t="s">
+        <v>292</v>
+      </c>
+      <c r="F143">
+        <v>5722</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143">
+        <v>1200</v>
+      </c>
+      <c r="I143" t="s">
+        <v>297</v>
+      </c>
+      <c r="J143">
+        <v>455</v>
+      </c>
+      <c r="K143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144">
+        <v>3637</v>
+      </c>
+      <c r="G144">
+        <v>300</v>
+      </c>
+      <c r="H144">
+        <v>12000</v>
+      </c>
+      <c r="I144" t="s">
+        <v>297</v>
+      </c>
+      <c r="J144">
+        <v>260</v>
+      </c>
+      <c r="K144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145">
+        <v>631</v>
+      </c>
+      <c r="G145">
+        <v>128</v>
+      </c>
+      <c r="H145">
+        <v>1400</v>
+      </c>
+      <c r="I145" t="s">
+        <v>297</v>
+      </c>
+      <c r="J145">
+        <v>441</v>
+      </c>
+      <c r="K145" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D146" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" t="s">
+        <v>274</v>
+      </c>
+      <c r="F146">
+        <v>8787</v>
+      </c>
+      <c r="G146">
+        <v>190</v>
+      </c>
+      <c r="H146">
+        <v>1200</v>
+      </c>
+      <c r="I146" t="s">
+        <v>296</v>
+      </c>
+      <c r="J146">
+        <v>433</v>
+      </c>
+      <c r="K146" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" t="s">
+        <v>178</v>
+      </c>
+      <c r="E147" t="s">
+        <v>258</v>
+      </c>
+      <c r="F147">
+        <v>2625</v>
+      </c>
+      <c r="G147">
+        <v>162</v>
+      </c>
+      <c r="H147">
+        <v>1400</v>
+      </c>
+      <c r="I147" t="s">
+        <v>297</v>
+      </c>
+      <c r="J147">
+        <v>229</v>
+      </c>
+      <c r="K147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148" t="s">
+        <v>180</v>
+      </c>
+      <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148">
+        <v>1295</v>
+      </c>
+      <c r="G148">
+        <v>189</v>
+      </c>
+      <c r="H148">
+        <v>12000</v>
+      </c>
+      <c r="I148" t="s">
+        <v>296</v>
+      </c>
+      <c r="J148">
+        <v>75</v>
+      </c>
+      <c r="K148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+      <c r="F149">
+        <v>4082</v>
+      </c>
+      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="H149">
+        <v>1400</v>
+      </c>
+      <c r="I149" t="s">
+        <v>296</v>
+      </c>
+      <c r="J149">
+        <v>390</v>
+      </c>
+      <c r="K149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" t="s">
+        <v>170</v>
+      </c>
+      <c r="D150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E150" t="s">
+        <v>295</v>
+      </c>
+      <c r="F150">
+        <v>3920</v>
+      </c>
+      <c r="G150">
+        <v>161</v>
+      </c>
+      <c r="H150">
+        <v>250000</v>
+      </c>
+      <c r="I150" t="s">
+        <v>296</v>
+      </c>
+      <c r="J150">
+        <v>152</v>
+      </c>
+      <c r="K150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" t="s">
+        <v>243</v>
+      </c>
+      <c r="F151">
+        <v>187</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>12000</v>
+      </c>
+      <c r="I151" t="s">
+        <v>297</v>
+      </c>
+      <c r="J151">
+        <v>152</v>
+      </c>
+      <c r="K151" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto_final/Insumos/aviones_compania_final.xlsx
+++ b/Proyecto_final/Insumos/aviones_compania_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE3161-DE71-401F-BF80-15A8D7E93BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4485F-DDA1-4EEF-9180-A433A2972415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,7 +1308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6610,7 +6612,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto_final/Insumos/aviones_compania_final.xlsx
+++ b/Proyecto_final/Insumos/aviones_compania_final.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67d5a1dced8d44fe/Documentos/Dirtrab/Trabajo-Logica---Aerolinea/Proyecto_final/Insumos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A8C0A-9A8F-499A-BC76-9FB60064EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4485F-DDA1-4EEF-9180-A433A2972415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio_Aviones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Directorio_Aviones!$H$1:$H$151</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="301">
   <si>
     <t>matricula</t>
   </si>
@@ -43,9 +59,6 @@
     <t>capacidad_pasajeros</t>
   </si>
   <si>
-    <t>peso_maximo_equipaje</t>
-  </si>
-  <si>
     <t>disponible</t>
   </si>
   <si>
@@ -58,643 +71,874 @@
     <t>ABC001</t>
   </si>
   <si>
-    <t>ABC002</t>
-  </si>
-  <si>
     <t>ABC003</t>
   </si>
   <si>
-    <t>ABC004</t>
-  </si>
-  <si>
     <t>ABC005</t>
   </si>
   <si>
-    <t>ABC006</t>
-  </si>
-  <si>
     <t>ABC007</t>
   </si>
   <si>
-    <t>ABC008</t>
-  </si>
-  <si>
     <t>ABC009</t>
   </si>
   <si>
-    <t>ABC010</t>
-  </si>
-  <si>
     <t>ABC011</t>
   </si>
   <si>
-    <t>ABC012</t>
-  </si>
-  <si>
     <t>ABC013</t>
   </si>
   <si>
-    <t>ABC014</t>
-  </si>
-  <si>
     <t>ABC015</t>
   </si>
   <si>
-    <t>ABC016</t>
-  </si>
-  <si>
     <t>ABC017</t>
   </si>
   <si>
-    <t>ABC018</t>
-  </si>
-  <si>
     <t>ABC019</t>
   </si>
   <si>
-    <t>ABC020</t>
-  </si>
-  <si>
     <t>ABC021</t>
   </si>
   <si>
-    <t>ABC022</t>
-  </si>
-  <si>
     <t>ABC023</t>
   </si>
   <si>
-    <t>ABC024</t>
-  </si>
-  <si>
     <t>ABC025</t>
   </si>
   <si>
-    <t>ABC026</t>
-  </si>
-  <si>
     <t>ABC027</t>
   </si>
   <si>
-    <t>ABC028</t>
-  </si>
-  <si>
     <t>ABC029</t>
   </si>
   <si>
-    <t>ABC030</t>
-  </si>
-  <si>
     <t>ABC031</t>
   </si>
   <si>
-    <t>ABC032</t>
-  </si>
-  <si>
     <t>ABC033</t>
   </si>
   <si>
-    <t>ABC034</t>
-  </si>
-  <si>
     <t>ABC035</t>
   </si>
   <si>
-    <t>ABC036</t>
-  </si>
-  <si>
     <t>ABC037</t>
   </si>
   <si>
-    <t>ABC038</t>
-  </si>
-  <si>
     <t>ABC039</t>
   </si>
   <si>
-    <t>ABC040</t>
-  </si>
-  <si>
     <t>ABC041</t>
   </si>
   <si>
-    <t>ABC042</t>
-  </si>
-  <si>
     <t>ABC043</t>
   </si>
   <si>
-    <t>ABC044</t>
-  </si>
-  <si>
     <t>ABC045</t>
   </si>
   <si>
-    <t>ABC046</t>
-  </si>
-  <si>
     <t>ABC047</t>
   </si>
   <si>
-    <t>ABC048</t>
-  </si>
-  <si>
     <t>ABC049</t>
   </si>
   <si>
-    <t>ABC050</t>
-  </si>
-  <si>
     <t>ABC051</t>
   </si>
   <si>
-    <t>ABC052</t>
-  </si>
-  <si>
     <t>ABC053</t>
   </si>
   <si>
-    <t>ABC054</t>
-  </si>
-  <si>
     <t>ABC055</t>
   </si>
   <si>
-    <t>ABC056</t>
-  </si>
-  <si>
     <t>ABC057</t>
   </si>
   <si>
-    <t>ABC058</t>
-  </si>
-  <si>
     <t>ABC059</t>
   </si>
   <si>
-    <t>ABC060</t>
-  </si>
-  <si>
     <t>ABC061</t>
   </si>
   <si>
-    <t>ABC062</t>
-  </si>
-  <si>
     <t>ABC063</t>
   </si>
   <si>
-    <t>ABC064</t>
-  </si>
-  <si>
     <t>ABC065</t>
   </si>
   <si>
-    <t>ABC066</t>
-  </si>
-  <si>
     <t>ABC067</t>
   </si>
   <si>
-    <t>ABC068</t>
-  </si>
-  <si>
     <t>ABC069</t>
   </si>
   <si>
-    <t>ABC070</t>
-  </si>
-  <si>
     <t>ABC071</t>
   </si>
   <si>
-    <t>ABC072</t>
-  </si>
-  <si>
     <t>ABC073</t>
   </si>
   <si>
-    <t>ABC074</t>
-  </si>
-  <si>
     <t>ABC075</t>
   </si>
   <si>
-    <t>ABC076</t>
-  </si>
-  <si>
     <t>ABC077</t>
   </si>
   <si>
-    <t>ABC078</t>
-  </si>
-  <si>
     <t>ABC079</t>
   </si>
   <si>
-    <t>ABC080</t>
-  </si>
-  <si>
     <t>ABC081</t>
   </si>
   <si>
-    <t>ABC082</t>
-  </si>
-  <si>
     <t>ABC083</t>
   </si>
   <si>
-    <t>ABC084</t>
-  </si>
-  <si>
     <t>ABC085</t>
   </si>
   <si>
-    <t>ABC086</t>
-  </si>
-  <si>
     <t>ABC087</t>
   </si>
   <si>
-    <t>ABC088</t>
-  </si>
-  <si>
     <t>ABC089</t>
   </si>
   <si>
-    <t>ABC090</t>
-  </si>
-  <si>
     <t>ABC091</t>
   </si>
   <si>
-    <t>ABC092</t>
-  </si>
-  <si>
     <t>ABC093</t>
   </si>
   <si>
-    <t>ABC094</t>
-  </si>
-  <si>
     <t>ABC095</t>
   </si>
   <si>
-    <t>ABC096</t>
-  </si>
-  <si>
     <t>ABC097</t>
   </si>
   <si>
-    <t>ABC098</t>
-  </si>
-  <si>
     <t>ABC099</t>
   </si>
   <si>
-    <t>ABC100</t>
+    <t>ABC101</t>
+  </si>
+  <si>
+    <t>ABC102</t>
+  </si>
+  <si>
+    <t>ABC103</t>
+  </si>
+  <si>
+    <t>ABC104</t>
+  </si>
+  <si>
+    <t>ABC105</t>
+  </si>
+  <si>
+    <t>ABC106</t>
+  </si>
+  <si>
+    <t>ABC107</t>
+  </si>
+  <si>
+    <t>ABC108</t>
+  </si>
+  <si>
+    <t>ABC109</t>
+  </si>
+  <si>
+    <t>ABC110</t>
+  </si>
+  <si>
+    <t>ABC111</t>
+  </si>
+  <si>
+    <t>ABC112</t>
+  </si>
+  <si>
+    <t>ABC113</t>
+  </si>
+  <si>
+    <t>ABC114</t>
+  </si>
+  <si>
+    <t>ABC115</t>
+  </si>
+  <si>
+    <t>ABC116</t>
+  </si>
+  <si>
+    <t>ABC117</t>
+  </si>
+  <si>
+    <t>ABC118</t>
+  </si>
+  <si>
+    <t>ABC119</t>
+  </si>
+  <si>
+    <t>ABC120</t>
+  </si>
+  <si>
+    <t>ABC121</t>
+  </si>
+  <si>
+    <t>ABC122</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>ABC124</t>
+  </si>
+  <si>
+    <t>ABC125</t>
+  </si>
+  <si>
+    <t>ABC126</t>
+  </si>
+  <si>
+    <t>ABC127</t>
+  </si>
+  <si>
+    <t>ABC128</t>
+  </si>
+  <si>
+    <t>ABC129</t>
+  </si>
+  <si>
+    <t>ABC130</t>
+  </si>
+  <si>
+    <t>ABC131</t>
+  </si>
+  <si>
+    <t>ABC132</t>
+  </si>
+  <si>
+    <t>ABC133</t>
+  </si>
+  <si>
+    <t>ABC134</t>
+  </si>
+  <si>
+    <t>ABC135</t>
+  </si>
+  <si>
+    <t>ABC136</t>
+  </si>
+  <si>
+    <t>ABC137</t>
+  </si>
+  <si>
+    <t>ABC138</t>
+  </si>
+  <si>
+    <t>ABC139</t>
+  </si>
+  <si>
+    <t>ABC140</t>
+  </si>
+  <si>
+    <t>ABC141</t>
+  </si>
+  <si>
+    <t>ABC142</t>
+  </si>
+  <si>
+    <t>ABC143</t>
+  </si>
+  <si>
+    <t>ABC144</t>
+  </si>
+  <si>
+    <t>ABC145</t>
+  </si>
+  <si>
+    <t>ABC146</t>
+  </si>
+  <si>
+    <t>ABC147</t>
+  </si>
+  <si>
+    <t>ABC148</t>
+  </si>
+  <si>
+    <t>ABC149</t>
+  </si>
+  <si>
+    <t>ABC150</t>
+  </si>
+  <si>
+    <t>ABC151</t>
+  </si>
+  <si>
+    <t>ABC152</t>
+  </si>
+  <si>
+    <t>ABC153</t>
+  </si>
+  <si>
+    <t>ABC154</t>
+  </si>
+  <si>
+    <t>ABC155</t>
+  </si>
+  <si>
+    <t>ABC156</t>
+  </si>
+  <si>
+    <t>ABC157</t>
+  </si>
+  <si>
+    <t>ABC158</t>
+  </si>
+  <si>
+    <t>ABC159</t>
+  </si>
+  <si>
+    <t>ABC160</t>
+  </si>
+  <si>
+    <t>ABC161</t>
+  </si>
+  <si>
+    <t>ABC162</t>
+  </si>
+  <si>
+    <t>ABC163</t>
+  </si>
+  <si>
+    <t>ABC164</t>
+  </si>
+  <si>
+    <t>ABC165</t>
+  </si>
+  <si>
+    <t>ABC166</t>
+  </si>
+  <si>
+    <t>ABC167</t>
+  </si>
+  <si>
+    <t>ABC168</t>
+  </si>
+  <si>
+    <t>ABC169</t>
+  </si>
+  <si>
+    <t>ABC170</t>
+  </si>
+  <si>
+    <t>ABC171</t>
+  </si>
+  <si>
+    <t>ABC172</t>
+  </si>
+  <si>
+    <t>ABC173</t>
+  </si>
+  <si>
+    <t>ABC174</t>
+  </si>
+  <si>
+    <t>ABC175</t>
+  </si>
+  <si>
+    <t>ABC176</t>
+  </si>
+  <si>
+    <t>ABC177</t>
+  </si>
+  <si>
+    <t>ABC178</t>
+  </si>
+  <si>
+    <t>ABC179</t>
+  </si>
+  <si>
+    <t>ABC180</t>
+  </si>
+  <si>
+    <t>ABC181</t>
+  </si>
+  <si>
+    <t>ABC182</t>
+  </si>
+  <si>
+    <t>ABC183</t>
+  </si>
+  <si>
+    <t>ABC184</t>
+  </si>
+  <si>
+    <t>ABC185</t>
+  </si>
+  <si>
+    <t>ABC186</t>
+  </si>
+  <si>
+    <t>ABC187</t>
+  </si>
+  <si>
+    <t>ABC188</t>
+  </si>
+  <si>
+    <t>ABC189</t>
+  </si>
+  <si>
+    <t>ABC190</t>
+  </si>
+  <si>
+    <t>ABC191</t>
+  </si>
+  <si>
+    <t>ABC192</t>
+  </si>
+  <si>
+    <t>ABC193</t>
+  </si>
+  <si>
+    <t>ABC194</t>
+  </si>
+  <si>
+    <t>ABC195</t>
+  </si>
+  <si>
+    <t>ABC196</t>
+  </si>
+  <si>
+    <t>ABC197</t>
+  </si>
+  <si>
+    <t>ABC198</t>
+  </si>
+  <si>
+    <t>ABC199</t>
+  </si>
+  <si>
+    <t>ABC200</t>
   </si>
   <si>
     <t>Privado</t>
   </si>
   <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Bombardier Global 6000</t>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>Fumigación</t>
+  </si>
+  <si>
+    <t>Ambulancia Aérea</t>
+  </si>
+  <si>
+    <t>Vuelo Privado</t>
+  </si>
+  <si>
+    <t>Airbus A320</t>
+  </si>
+  <si>
+    <t>Gulfstream G550</t>
+  </si>
+  <si>
+    <t>Embraer Phenom 300</t>
   </si>
   <si>
     <t>Boeing 737</t>
   </si>
   <si>
-    <t>Airbus A320</t>
-  </si>
-  <si>
-    <t>Gulfstream G550</t>
-  </si>
-  <si>
-    <t>Embraer Phenom 300</t>
-  </si>
-  <si>
     <t>Cessna Citation X</t>
   </si>
   <si>
+    <t>Antonov AN-225</t>
+  </si>
+  <si>
+    <t>Pilatus PC-12</t>
+  </si>
+  <si>
+    <t>Cessna Caravan</t>
+  </si>
+  <si>
+    <t>Beechcraft King Air</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>Gulfstream</t>
+  </si>
+  <si>
     <t>Embraer</t>
   </si>
   <si>
-    <t>Bombardier</t>
-  </si>
-  <si>
-    <t>Airbus</t>
-  </si>
-  <si>
     <t>Boeing</t>
   </si>
   <si>
-    <t>Gulfstream</t>
-  </si>
-  <si>
     <t>Cessna</t>
   </si>
   <si>
+    <t>Beechcraft</t>
+  </si>
+  <si>
+    <t>Pilatus</t>
+  </si>
+  <si>
+    <t>Antonov</t>
+  </si>
+  <si>
     <t>Owner 1</t>
   </si>
   <si>
-    <t>Owner 2</t>
-  </si>
-  <si>
     <t>Owner 3</t>
   </si>
   <si>
-    <t>Owner 4</t>
-  </si>
-  <si>
     <t>Owner 5</t>
   </si>
   <si>
-    <t>Owner 6</t>
-  </si>
-  <si>
     <t>Owner 7</t>
   </si>
   <si>
-    <t>Owner 8</t>
-  </si>
-  <si>
     <t>Owner 9</t>
   </si>
   <si>
-    <t>Owner 10</t>
-  </si>
-  <si>
     <t>Owner 11</t>
   </si>
   <si>
-    <t>Owner 12</t>
-  </si>
-  <si>
     <t>Owner 13</t>
   </si>
   <si>
-    <t>Owner 14</t>
-  </si>
-  <si>
     <t>Owner 15</t>
   </si>
   <si>
-    <t>Owner 16</t>
-  </si>
-  <si>
     <t>Owner 17</t>
   </si>
   <si>
-    <t>Owner 18</t>
-  </si>
-  <si>
     <t>Owner 19</t>
   </si>
   <si>
-    <t>Owner 20</t>
-  </si>
-  <si>
     <t>Owner 21</t>
   </si>
   <si>
-    <t>Owner 22</t>
-  </si>
-  <si>
     <t>Owner 23</t>
   </si>
   <si>
-    <t>Owner 24</t>
-  </si>
-  <si>
     <t>Owner 25</t>
   </si>
   <si>
-    <t>Owner 26</t>
-  </si>
-  <si>
     <t>Owner 27</t>
   </si>
   <si>
-    <t>Owner 28</t>
-  </si>
-  <si>
     <t>Owner 29</t>
   </si>
   <si>
-    <t>Owner 30</t>
-  </si>
-  <si>
     <t>Owner 31</t>
   </si>
   <si>
-    <t>Owner 32</t>
-  </si>
-  <si>
     <t>Owner 33</t>
   </si>
   <si>
-    <t>Owner 34</t>
-  </si>
-  <si>
     <t>Owner 35</t>
   </si>
   <si>
-    <t>Owner 36</t>
-  </si>
-  <si>
     <t>Owner 37</t>
   </si>
   <si>
-    <t>Owner 38</t>
-  </si>
-  <si>
     <t>Owner 39</t>
   </si>
   <si>
-    <t>Owner 40</t>
-  </si>
-  <si>
     <t>Owner 41</t>
   </si>
   <si>
-    <t>Owner 42</t>
-  </si>
-  <si>
     <t>Owner 43</t>
   </si>
   <si>
-    <t>Owner 44</t>
-  </si>
-  <si>
     <t>Owner 45</t>
   </si>
   <si>
-    <t>Owner 46</t>
-  </si>
-  <si>
     <t>Owner 47</t>
   </si>
   <si>
-    <t>Owner 48</t>
-  </si>
-  <si>
     <t>Owner 49</t>
   </si>
   <si>
-    <t>Owner 50</t>
-  </si>
-  <si>
     <t>Owner 51</t>
   </si>
   <si>
-    <t>Owner 52</t>
-  </si>
-  <si>
     <t>Owner 53</t>
   </si>
   <si>
-    <t>Owner 54</t>
-  </si>
-  <si>
     <t>Owner 55</t>
   </si>
   <si>
-    <t>Owner 56</t>
-  </si>
-  <si>
     <t>Owner 57</t>
   </si>
   <si>
-    <t>Owner 58</t>
-  </si>
-  <si>
     <t>Owner 59</t>
   </si>
   <si>
-    <t>Owner 60</t>
-  </si>
-  <si>
     <t>Owner 61</t>
   </si>
   <si>
-    <t>Owner 62</t>
-  </si>
-  <si>
     <t>Owner 63</t>
   </si>
   <si>
-    <t>Owner 64</t>
-  </si>
-  <si>
     <t>Owner 65</t>
   </si>
   <si>
-    <t>Owner 66</t>
-  </si>
-  <si>
     <t>Owner 67</t>
   </si>
   <si>
-    <t>Owner 68</t>
-  </si>
-  <si>
     <t>Owner 69</t>
   </si>
   <si>
-    <t>Owner 70</t>
-  </si>
-  <si>
     <t>Owner 71</t>
   </si>
   <si>
-    <t>Owner 72</t>
-  </si>
-  <si>
     <t>Owner 73</t>
   </si>
   <si>
-    <t>Owner 74</t>
-  </si>
-  <si>
     <t>Owner 75</t>
   </si>
   <si>
-    <t>Owner 76</t>
-  </si>
-  <si>
     <t>Owner 77</t>
   </si>
   <si>
-    <t>Owner 78</t>
-  </si>
-  <si>
     <t>Owner 79</t>
   </si>
   <si>
-    <t>Owner 80</t>
-  </si>
-  <si>
     <t>Owner 81</t>
   </si>
   <si>
-    <t>Owner 82</t>
-  </si>
-  <si>
     <t>Owner 83</t>
   </si>
   <si>
-    <t>Owner 84</t>
-  </si>
-  <si>
     <t>Owner 85</t>
   </si>
   <si>
-    <t>Owner 86</t>
-  </si>
-  <si>
     <t>Owner 87</t>
   </si>
   <si>
-    <t>Owner 88</t>
-  </si>
-  <si>
     <t>Owner 89</t>
   </si>
   <si>
-    <t>Owner 90</t>
-  </si>
-  <si>
     <t>Owner 91</t>
   </si>
   <si>
-    <t>Owner 92</t>
-  </si>
-  <si>
     <t>Owner 93</t>
   </si>
   <si>
-    <t>Owner 94</t>
-  </si>
-  <si>
     <t>Owner 95</t>
   </si>
   <si>
-    <t>Owner 96</t>
-  </si>
-  <si>
     <t>Owner 97</t>
   </si>
   <si>
-    <t>Owner 98</t>
-  </si>
-  <si>
     <t>Owner 99</t>
   </si>
   <si>
-    <t>Owner 100</t>
+    <t>Owner 148</t>
+  </si>
+  <si>
+    <t>Owner 145</t>
+  </si>
+  <si>
+    <t>Owner 119</t>
+  </si>
+  <si>
+    <t>Owner 117</t>
+  </si>
+  <si>
+    <t>Owner 149</t>
+  </si>
+  <si>
+    <t>Owner 112</t>
+  </si>
+  <si>
+    <t>Owner 104</t>
+  </si>
+  <si>
+    <t>Owner 151</t>
+  </si>
+  <si>
+    <t>Owner 197</t>
+  </si>
+  <si>
+    <t>Owner 152</t>
+  </si>
+  <si>
+    <t>Owner 140</t>
+  </si>
+  <si>
+    <t>Owner 158</t>
+  </si>
+  <si>
+    <t>Owner 192</t>
+  </si>
+  <si>
+    <t>Owner 135</t>
+  </si>
+  <si>
+    <t>Owner 113</t>
+  </si>
+  <si>
+    <t>Owner 142</t>
+  </si>
+  <si>
+    <t>Owner 159</t>
+  </si>
+  <si>
+    <t>Owner 172</t>
+  </si>
+  <si>
+    <t>Owner 125</t>
+  </si>
+  <si>
+    <t>Owner 186</t>
+  </si>
+  <si>
+    <t>Owner 146</t>
+  </si>
+  <si>
+    <t>Owner 110</t>
+  </si>
+  <si>
+    <t>Owner 198</t>
+  </si>
+  <si>
+    <t>Owner 179</t>
+  </si>
+  <si>
+    <t>Owner 162</t>
+  </si>
+  <si>
+    <t>Owner 182</t>
+  </si>
+  <si>
+    <t>Owner 184</t>
+  </si>
+  <si>
+    <t>Owner 173</t>
+  </si>
+  <si>
+    <t>Owner 122</t>
+  </si>
+  <si>
+    <t>Owner 138</t>
+  </si>
+  <si>
+    <t>Owner 143</t>
+  </si>
+  <si>
+    <t>Owner 156</t>
+  </si>
+  <si>
+    <t>Owner 166</t>
+  </si>
+  <si>
+    <t>Owner 103</t>
+  </si>
+  <si>
+    <t>Owner 183</t>
+  </si>
+  <si>
+    <t>Owner 144</t>
+  </si>
+  <si>
+    <t>Owner 107</t>
+  </si>
+  <si>
+    <t>Owner 190</t>
+  </si>
+  <si>
+    <t>Owner 136</t>
+  </si>
+  <si>
+    <t>Owner 195</t>
+  </si>
+  <si>
+    <t>Owner 120</t>
+  </si>
+  <si>
+    <t>Owner 131</t>
+  </si>
+  <si>
+    <t>Owner 196</t>
+  </si>
+  <si>
+    <t>Owner 114</t>
+  </si>
+  <si>
+    <t>Owner 147</t>
+  </si>
+  <si>
+    <t>Owner 121</t>
+  </si>
+  <si>
+    <t>Owner 139</t>
+  </si>
+  <si>
+    <t>Owner 105</t>
+  </si>
+  <si>
+    <t>Owner 157</t>
+  </si>
+  <si>
+    <t>Owner 193</t>
+  </si>
+  <si>
+    <t>Owner 126</t>
+  </si>
+  <si>
+    <t>Owner 111</t>
+  </si>
+  <si>
+    <t>Owner 102</t>
+  </si>
+  <si>
+    <t>Owner 163</t>
+  </si>
+  <si>
+    <t>Owner 189</t>
+  </si>
+  <si>
+    <t>Owner 127</t>
+  </si>
+  <si>
+    <t>Owner 150</t>
+  </si>
+  <si>
+    <t>Owner 194</t>
+  </si>
+  <si>
+    <t>Owner 177</t>
+  </si>
+  <si>
+    <t>Owner 168</t>
+  </si>
+  <si>
+    <t>Owner 132</t>
+  </si>
+  <si>
+    <t>Owner 155</t>
+  </si>
+  <si>
+    <t>Owner 161</t>
+  </si>
+  <si>
+    <t>Owner 180</t>
+  </si>
+  <si>
+    <t>VERDADERO</t>
+  </si>
+  <si>
+    <t>FALSO</t>
+  </si>
+  <si>
+    <t>peso_maximo_carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeing 747 </t>
+  </si>
+  <si>
+    <t>Boeing 747</t>
   </si>
 </sst>
 </file>
@@ -1062,21 +1306,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F98" sqref="F97:F98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
@@ -1105,2976 +1349,2976 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="F2">
-        <v>190</v>
+        <v>2842</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="H2">
-        <v>1800</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I2" t="s">
+        <v>296</v>
       </c>
       <c r="J2">
-        <v>334</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
+        <v>269</v>
+      </c>
+      <c r="K2" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F3">
-        <v>980</v>
+        <v>8561</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>5500</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>296</v>
       </c>
       <c r="J3">
-        <v>346</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="K3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4">
+        <v>3436</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>2975</v>
-      </c>
-      <c r="G4">
-        <v>180</v>
-      </c>
-      <c r="H4">
-        <v>5000</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>297</v>
       </c>
       <c r="J4">
-        <v>434</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="F5">
-        <v>6102</v>
+        <v>2065</v>
       </c>
       <c r="G5">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H5">
-        <v>5000</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>296</v>
       </c>
       <c r="J5">
-        <v>446</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="K5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="F6">
-        <v>1184</v>
+        <v>6166</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>5500</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>296</v>
       </c>
       <c r="J6">
-        <v>481</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="F7">
-        <v>3327</v>
+        <v>402</v>
       </c>
       <c r="G7">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H7">
-        <v>5000</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I7" t="s">
+        <v>296</v>
       </c>
       <c r="J7">
-        <v>307</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8">
+        <v>9806</v>
+      </c>
+      <c r="G8">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8">
-        <v>3394</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
       <c r="H8">
-        <v>5500</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I8" t="s">
+        <v>297</v>
       </c>
       <c r="J8">
-        <v>248</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="K8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="F9">
-        <v>8319</v>
+        <v>9026</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>5500</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>297</v>
       </c>
       <c r="J9">
-        <v>165</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="F10">
-        <v>1816</v>
+        <v>1419</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H10">
-        <v>5500</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>296</v>
       </c>
       <c r="J10">
-        <v>480</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="F11">
-        <v>5854</v>
+        <v>703</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>1500</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>296</v>
       </c>
       <c r="J11">
-        <v>471</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="K11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="F12">
-        <v>6709</v>
+        <v>8711</v>
       </c>
       <c r="G12">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H12">
-        <v>5000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I12" t="s">
+        <v>296</v>
       </c>
       <c r="J12">
-        <v>334</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F13">
-        <v>569</v>
+        <v>5976</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>1800</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I13" t="s">
+        <v>296</v>
       </c>
       <c r="J13">
-        <v>29</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="K13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="F14">
-        <v>5442</v>
+        <v>7841</v>
       </c>
       <c r="G14">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>5000</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
+        <v>297</v>
       </c>
       <c r="J14">
-        <v>246</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="K14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="F15">
-        <v>1895</v>
+        <v>4638</v>
       </c>
       <c r="G15">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H15">
-        <v>5000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>296</v>
       </c>
       <c r="J15">
-        <v>105</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
+        <v>474</v>
+      </c>
+      <c r="K15" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="F16">
-        <v>2733</v>
+        <v>2969</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>1800</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>296</v>
       </c>
       <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="K16" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="F17">
-        <v>3863</v>
+        <v>3680</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H17">
-        <v>5000</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I17" t="s">
+        <v>296</v>
       </c>
       <c r="J17">
-        <v>80</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="F18">
-        <v>7455</v>
+        <v>3117</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>1000</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>296</v>
       </c>
       <c r="J18">
-        <v>132</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F19">
-        <v>4014</v>
+        <v>973</v>
       </c>
       <c r="G19">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>5000</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>297</v>
       </c>
       <c r="J19">
-        <v>284</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>1686</v>
+        <v>2811</v>
       </c>
       <c r="G20">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="H20">
-        <v>5500</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>297</v>
       </c>
       <c r="J20">
-        <v>387</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="K20" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="F21">
-        <v>3009</v>
+        <v>8157</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>1800</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>297</v>
       </c>
       <c r="J21">
-        <v>137</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22">
+        <v>9985</v>
+      </c>
+      <c r="G22">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22">
-        <v>7806</v>
-      </c>
-      <c r="G22">
-        <v>180</v>
-      </c>
       <c r="H22">
-        <v>5000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I22" t="s">
+        <v>297</v>
       </c>
       <c r="J22">
-        <v>183</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="F23">
-        <v>154</v>
+        <v>9169</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>1800</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I23" t="s">
+        <v>297</v>
       </c>
       <c r="J23">
-        <v>400</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="F24">
-        <v>1409</v>
+        <v>3540</v>
       </c>
       <c r="G24">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>5500</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>297</v>
       </c>
       <c r="J24">
-        <v>329</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="K24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="F25">
-        <v>784</v>
+        <v>4821</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H25">
-        <v>1000</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>297</v>
       </c>
       <c r="J25">
-        <v>272</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="K25" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="F26">
-        <v>8096</v>
+        <v>9959</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>1200</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>297</v>
       </c>
       <c r="J26">
-        <v>339</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="F27">
-        <v>7560</v>
+        <v>4185</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H27">
-        <v>5500</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I27" t="s">
+        <v>297</v>
       </c>
       <c r="J27">
-        <v>471</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
+        <v>376</v>
+      </c>
+      <c r="K27" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="F28">
-        <v>7343</v>
+        <v>3650</v>
       </c>
       <c r="G28">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>5000</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I28" t="s">
+        <v>296</v>
       </c>
       <c r="J28">
-        <v>68</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
+        <v>464</v>
+      </c>
+      <c r="K28" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="F29">
-        <v>7206</v>
+        <v>2418</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1200</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>297</v>
       </c>
       <c r="J29">
-        <v>33</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="F30">
-        <v>5596</v>
+        <v>7059</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H30">
-        <v>5000</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>296</v>
       </c>
       <c r="J30">
-        <v>261</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="F31">
-        <v>5801</v>
+        <v>2576</v>
       </c>
       <c r="G31">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>5000</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
       </c>
       <c r="J31">
-        <v>52</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
+        <v>456</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="F32">
-        <v>2806</v>
+        <v>4875</v>
       </c>
       <c r="G32">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H32">
-        <v>5500</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
       </c>
       <c r="J32">
-        <v>449</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="F33">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>1000</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
       </c>
       <c r="J33">
-        <v>204</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="F34">
-        <v>5986</v>
+        <v>9347</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>1000</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
       </c>
       <c r="J34">
-        <v>125</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
+        <v>445</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="F35">
-        <v>1841</v>
+        <v>167</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H35">
-        <v>1000</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
       </c>
       <c r="J35">
-        <v>234</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="F36">
-        <v>8716</v>
+        <v>8986</v>
       </c>
       <c r="G36">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>1000</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
       </c>
       <c r="J36">
-        <v>42</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37">
+        <v>6257</v>
+      </c>
+      <c r="G37">
         <v>122</v>
       </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37">
-        <v>6971</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
       <c r="H37">
-        <v>1000</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
       </c>
       <c r="J37">
-        <v>239</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
+        <v>235</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="F38">
-        <v>5625</v>
+        <v>551</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>1200</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
       </c>
       <c r="J38">
-        <v>458</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="F39">
-        <v>2950</v>
+        <v>8561</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>1200</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
       </c>
       <c r="J39">
-        <v>370</v>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="F40">
-        <v>7992</v>
+        <v>2446</v>
       </c>
       <c r="G40">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="H40">
-        <v>1800</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>296</v>
       </c>
       <c r="J40">
-        <v>110</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="K40" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F41">
-        <v>4780</v>
+        <v>4973</v>
       </c>
       <c r="G41">
         <v>9</v>
       </c>
       <c r="H41">
-        <v>1000</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>297</v>
       </c>
       <c r="J41">
-        <v>248</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
+        <v>393</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="F42">
-        <v>2368</v>
+        <v>8596</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="H42">
-        <v>5500</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+        <v>580</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
       </c>
       <c r="J42">
-        <v>150</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="F43">
-        <v>6655</v>
+        <v>8313</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43">
-        <v>1800</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
       </c>
       <c r="J43">
-        <v>182</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="F44">
-        <v>8173</v>
+        <v>1548</v>
       </c>
       <c r="G44">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>5500</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
       </c>
       <c r="J44">
-        <v>335</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
+        <v>368</v>
+      </c>
+      <c r="K44" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="F45">
-        <v>4495</v>
+        <v>7427</v>
       </c>
       <c r="G45">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H45">
-        <v>5000</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
       </c>
       <c r="J45">
-        <v>94</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K45" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="F46">
-        <v>9163</v>
+        <v>2639</v>
       </c>
       <c r="G46">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>5000</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I46" t="s">
+        <v>296</v>
       </c>
       <c r="J46">
-        <v>458</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="K46" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="F47">
-        <v>6002</v>
+        <v>3199</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="H47">
-        <v>1200</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="I47" t="s">
+        <v>296</v>
       </c>
       <c r="J47">
-        <v>373</v>
-      </c>
-      <c r="K47" t="b">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="K47" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="F48">
-        <v>6614</v>
+        <v>5576</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48">
-        <v>1500</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
       </c>
       <c r="J48">
-        <v>399</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K48" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="F49">
-        <v>9358</v>
+        <v>5536</v>
       </c>
       <c r="G49">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>1500</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I49" t="s">
+        <v>297</v>
       </c>
       <c r="J49">
-        <v>7</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="K49" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="F50">
-        <v>5919</v>
+        <v>9130</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="H50">
-        <v>1500</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>297</v>
       </c>
       <c r="J50">
-        <v>387</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
+        <v>460</v>
+      </c>
+      <c r="K50" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="F51">
-        <v>853</v>
+        <v>5641</v>
       </c>
       <c r="G51">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>5000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
       </c>
       <c r="J51">
-        <v>359</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="K51" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="F52">
-        <v>4146</v>
+        <v>8430</v>
       </c>
       <c r="G52">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="H52">
-        <v>1200</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>296</v>
       </c>
       <c r="J52">
-        <v>387</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="K52" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F53">
-        <v>3769</v>
+        <v>9265</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H53">
-        <v>1500</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>296</v>
       </c>
       <c r="J53">
-        <v>183</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="F54">
-        <v>574</v>
+        <v>2384</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H54">
-        <v>1000</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I54" t="s">
+        <v>296</v>
       </c>
       <c r="J54">
-        <v>280</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="F55">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="G55">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>1500</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I55" t="s">
+        <v>297</v>
       </c>
       <c r="J55">
-        <v>194</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="F56">
-        <v>6293</v>
+        <v>2181</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H56">
-        <v>1500</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I56" t="s">
+        <v>296</v>
       </c>
       <c r="J56">
-        <v>351</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="K56" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="F57">
-        <v>6457</v>
+        <v>704</v>
       </c>
       <c r="G57">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="H57">
-        <v>5000</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I57" t="s">
+        <v>296</v>
       </c>
       <c r="J57">
-        <v>194</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="F58">
-        <v>7509</v>
+        <v>2373</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="H58">
-        <v>1800</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I58" t="s">
+        <v>297</v>
       </c>
       <c r="J58">
-        <v>154</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="K58" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F59">
-        <v>9907</v>
+        <v>4646</v>
       </c>
       <c r="G59">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>5500</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I59" t="s">
+        <v>297</v>
       </c>
       <c r="J59">
-        <v>92</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="K59" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="F60">
-        <v>4777</v>
+        <v>7967</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="H60">
-        <v>1000</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+        <v>12000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
       </c>
       <c r="J60">
-        <v>159</v>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
+        <v>458</v>
+      </c>
+      <c r="K60" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="F61">
-        <v>3854</v>
+        <v>858</v>
       </c>
       <c r="G61">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H61">
-        <v>5000</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I61" t="s">
+        <v>296</v>
       </c>
       <c r="J61">
-        <v>433</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="F62">
-        <v>2491</v>
+        <v>6445</v>
       </c>
       <c r="G62">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H62">
-        <v>1500</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I62" t="s">
+        <v>297</v>
       </c>
       <c r="J62">
-        <v>60</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="K62" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="F63">
-        <v>3124</v>
+        <v>4851</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>1200</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I63" t="s">
+        <v>297</v>
       </c>
       <c r="J63">
-        <v>121</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="F64">
-        <v>5691</v>
+        <v>2823</v>
       </c>
       <c r="G64">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H64">
-        <v>5000</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I64" t="s">
+        <v>297</v>
       </c>
       <c r="J64">
-        <v>50</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K64" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="F65">
-        <v>3051</v>
+        <v>9118</v>
       </c>
       <c r="G65">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>5000</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I65" t="s">
+        <v>296</v>
       </c>
       <c r="J65">
-        <v>402</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="K65" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>8983</v>
       </c>
       <c r="G66">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H66">
-        <v>5000</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I66" t="s">
+        <v>297</v>
       </c>
       <c r="J66">
-        <v>276</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="K66" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F67">
-        <v>5222</v>
+        <v>9241</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="H67">
-        <v>1200</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I67" t="s">
+        <v>296</v>
       </c>
       <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="K67" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F68">
-        <v>5315</v>
+        <v>3788</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>5500</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I68" t="s">
+        <v>297</v>
       </c>
       <c r="J68">
-        <v>465</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="K68" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="F69">
-        <v>4869</v>
+        <v>321</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="H69">
-        <v>1000</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I69" t="s">
+        <v>296</v>
       </c>
       <c r="J69">
-        <v>91</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="K69" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="F70">
-        <v>876</v>
+        <v>8443</v>
       </c>
       <c r="G70">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H70">
-        <v>1800</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>296</v>
       </c>
       <c r="J70">
-        <v>169</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
+        <v>395</v>
+      </c>
+      <c r="K70" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F71">
-        <v>9183</v>
+        <v>6376</v>
       </c>
       <c r="G71">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>5000</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>297</v>
       </c>
       <c r="J71">
-        <v>316</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
+        <v>366</v>
+      </c>
+      <c r="K71" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="F72">
-        <v>7027</v>
+        <v>1026</v>
       </c>
       <c r="G72">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="H72">
-        <v>5500</v>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I72" t="s">
+        <v>297</v>
       </c>
       <c r="J72">
-        <v>21</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="K72" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="F73">
-        <v>4142</v>
+        <v>2313</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H73">
-        <v>1000</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I73" t="s">
+        <v>296</v>
       </c>
       <c r="J73">
-        <v>404</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
+        <v>450</v>
+      </c>
+      <c r="K73" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="F74">
-        <v>6966</v>
+        <v>8193</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="H74">
-        <v>1000</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I74" t="s">
+        <v>297</v>
       </c>
       <c r="J74">
-        <v>325</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="K74" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="F75">
-        <v>7079</v>
+        <v>4170</v>
       </c>
       <c r="G75">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="H75">
-        <v>5500</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I75" t="s">
+        <v>296</v>
       </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
+        <v>491</v>
+      </c>
+      <c r="K75" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F76">
-        <v>7987</v>
+        <v>3644</v>
       </c>
       <c r="G76">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="H76">
-        <v>5000</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I76" t="s">
+        <v>297</v>
       </c>
       <c r="J76">
-        <v>132</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="K76" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F77">
-        <v>6799</v>
+        <v>4055</v>
       </c>
       <c r="G77">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="H77">
-        <v>5500</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I77" t="s">
+        <v>297</v>
       </c>
       <c r="J77">
-        <v>232</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="K77" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="F78">
-        <v>4465</v>
+        <v>4122</v>
       </c>
       <c r="G78">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H78">
-        <v>1500</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I78" t="s">
+        <v>297</v>
       </c>
       <c r="J78">
-        <v>11</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="F79">
-        <v>635</v>
+        <v>7481</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H79">
-        <v>1200</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I79" t="s">
+        <v>297</v>
       </c>
       <c r="J79">
-        <v>345</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="K79" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="F80">
-        <v>1693</v>
+        <v>8694</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H80">
-        <v>1500</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I80" t="s">
+        <v>296</v>
       </c>
       <c r="J80">
-        <v>45</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="K80" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="F81">
-        <v>9874</v>
+        <v>3632</v>
       </c>
       <c r="G81">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="H81">
         <v>1200</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="I81" t="s">
+        <v>296</v>
       </c>
       <c r="J81">
-        <v>33</v>
-      </c>
-      <c r="K81" t="b">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="K81" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F82">
-        <v>4752</v>
+        <v>1157</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>1000</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I82" t="s">
+        <v>297</v>
       </c>
       <c r="J82">
-        <v>432</v>
-      </c>
-      <c r="K82" t="b">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="K82" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F83">
-        <v>8311</v>
+        <v>3232</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="H83">
-        <v>1000</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
+        <v>12000</v>
+      </c>
+      <c r="I83" t="s">
+        <v>297</v>
       </c>
       <c r="J83">
-        <v>77</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="K83" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="F84">
-        <v>830</v>
+        <v>2507</v>
       </c>
       <c r="G84">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H84">
-        <v>5500</v>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I84" t="s">
+        <v>297</v>
       </c>
       <c r="J84">
-        <v>217</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="K84" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F85">
-        <v>5177</v>
+        <v>9722</v>
       </c>
       <c r="G85">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H85">
-        <v>1800</v>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I85" t="s">
+        <v>296</v>
       </c>
       <c r="J85">
-        <v>300</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="K85" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F86">
-        <v>9561</v>
+        <v>4262</v>
       </c>
       <c r="G86">
         <v>12</v>
@@ -4082,539 +4326,2289 @@
       <c r="H86">
         <v>1200</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
+      <c r="I86" t="s">
+        <v>296</v>
       </c>
       <c r="J86">
-        <v>410</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="K86" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F87">
-        <v>8932</v>
+        <v>5760</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H87">
-        <v>1800</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
+        <v>250000</v>
+      </c>
+      <c r="I87" t="s">
+        <v>296</v>
       </c>
       <c r="J87">
-        <v>72</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="K87" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="F88">
-        <v>8308</v>
+        <v>6348</v>
       </c>
       <c r="G88">
-        <v>180</v>
+        <v>9</v>
       </c>
       <c r="H88">
-        <v>5000</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I88" t="s">
+        <v>296</v>
       </c>
       <c r="J88">
-        <v>281</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="K88" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F89">
-        <v>5949</v>
+        <v>6511</v>
       </c>
       <c r="G89">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="H89">
-        <v>1500</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I89" t="s">
+        <v>296</v>
       </c>
       <c r="J89">
-        <v>248</v>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
+        <v>385</v>
+      </c>
+      <c r="K89" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="F90">
-        <v>2838</v>
+        <v>626</v>
       </c>
       <c r="G90">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H90">
-        <v>1500</v>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
+        <v>1200</v>
+      </c>
+      <c r="I90" t="s">
+        <v>297</v>
       </c>
       <c r="J90">
-        <v>46</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="K90" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F91">
-        <v>1150</v>
+        <v>4959</v>
       </c>
       <c r="G91">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="H91">
-        <v>5500</v>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I91" t="s">
+        <v>297</v>
       </c>
       <c r="J91">
-        <v>120</v>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="K91" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="F92">
-        <v>7560</v>
+        <v>3229</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H92">
-        <v>1500</v>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
+        <v>1400</v>
+      </c>
+      <c r="I92" t="s">
+        <v>297</v>
       </c>
       <c r="J92">
-        <v>213</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="K92" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="F93">
-        <v>1931</v>
+        <v>8700</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H93">
-        <v>1800</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>296</v>
       </c>
       <c r="J93">
-        <v>238</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K93" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="F94">
-        <v>9204</v>
+        <v>9427</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H94">
-        <v>1500</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I94" t="s">
+        <v>297</v>
       </c>
       <c r="J94">
-        <v>55</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="K94" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="F95">
-        <v>1664</v>
+        <v>7469</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="H95">
-        <v>1200</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="I95" t="s">
+        <v>297</v>
       </c>
       <c r="J95">
-        <v>349</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="K95" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="F96">
-        <v>1081</v>
+        <v>8947</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H96">
         <v>1200</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="I96" t="s">
+        <v>297</v>
       </c>
       <c r="J96">
-        <v>106</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
+        <v>328</v>
+      </c>
+      <c r="K96" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F97">
-        <v>512</v>
+        <v>1488</v>
       </c>
       <c r="G97">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="H97">
-        <v>5500</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I97" t="s">
+        <v>297</v>
       </c>
       <c r="J97">
-        <v>318</v>
-      </c>
-      <c r="K97" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="K97" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F98">
-        <v>7805</v>
+        <v>3563</v>
       </c>
       <c r="G98">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>5500</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I98" t="s">
+        <v>296</v>
       </c>
       <c r="J98">
-        <v>47</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
+        <v>498</v>
+      </c>
+      <c r="K98" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="F99">
-        <v>5237</v>
+        <v>2600</v>
       </c>
       <c r="G99">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H99">
-        <v>5000</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="I99" t="s">
+        <v>297</v>
       </c>
       <c r="J99">
-        <v>60</v>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="K99" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="F100">
-        <v>559</v>
+        <v>3963</v>
       </c>
       <c r="G100">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H100">
-        <v>1500</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
+        <v>250000</v>
+      </c>
+      <c r="I100" t="s">
+        <v>297</v>
       </c>
       <c r="J100">
-        <v>336</v>
-      </c>
-      <c r="K100" t="b">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="K100" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101">
+        <v>1900</v>
+      </c>
+      <c r="G101">
+        <v>169</v>
+      </c>
+      <c r="H101">
+        <v>250000</v>
+      </c>
+      <c r="I101" t="s">
+        <v>296</v>
+      </c>
+      <c r="J101">
+        <v>307</v>
+      </c>
+      <c r="K101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+      <c r="F102">
+        <v>8990</v>
+      </c>
+      <c r="G102">
+        <v>118</v>
+      </c>
+      <c r="H102">
+        <v>12000</v>
+      </c>
+      <c r="I102" t="s">
+        <v>296</v>
+      </c>
+      <c r="J102">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>111</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" t="s">
+        <v>273</v>
+      </c>
+      <c r="F103">
+        <v>531</v>
+      </c>
+      <c r="G103">
+        <v>96</v>
+      </c>
+      <c r="H103">
+        <v>1200</v>
+      </c>
+      <c r="I103" t="s">
+        <v>297</v>
+      </c>
+      <c r="J103">
+        <v>223</v>
+      </c>
+      <c r="K103" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F104">
+        <v>7879</v>
+      </c>
+      <c r="G104">
+        <v>151</v>
+      </c>
+      <c r="H104">
+        <v>1400</v>
+      </c>
+      <c r="I104" t="s">
+        <v>296</v>
+      </c>
+      <c r="J104">
+        <v>338</v>
+      </c>
+      <c r="K104" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105">
+        <v>2105</v>
+      </c>
+      <c r="G105">
+        <v>90</v>
+      </c>
+      <c r="H105">
+        <v>250000</v>
+      </c>
+      <c r="I105" t="s">
+        <v>296</v>
+      </c>
+      <c r="J105">
+        <v>390</v>
+      </c>
+      <c r="K105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" t="s">
+        <v>255</v>
+      </c>
+      <c r="F106">
+        <v>4070</v>
+      </c>
+      <c r="G106">
+        <v>163</v>
+      </c>
+      <c r="H106">
+        <v>1400</v>
+      </c>
+      <c r="I106" t="s">
+        <v>296</v>
+      </c>
+      <c r="J106">
+        <v>316</v>
+      </c>
+      <c r="K106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107">
+        <v>5719</v>
+      </c>
+      <c r="G107">
+        <v>116</v>
+      </c>
+      <c r="H107">
+        <v>1400</v>
+      </c>
+      <c r="I107" t="s">
+        <v>297</v>
+      </c>
+      <c r="J107">
+        <v>386</v>
+      </c>
+      <c r="K107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" t="s">
+        <v>258</v>
+      </c>
+      <c r="F108">
+        <v>6437</v>
+      </c>
+      <c r="G108">
+        <v>13</v>
+      </c>
+      <c r="H108">
+        <v>1400</v>
+      </c>
+      <c r="I108" t="s">
+        <v>297</v>
+      </c>
+      <c r="J108">
+        <v>286</v>
+      </c>
+      <c r="K108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="D101" t="s">
+      <c r="B109" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" t="s">
+        <v>275</v>
+      </c>
+      <c r="F109">
+        <v>4401</v>
+      </c>
+      <c r="G109">
+        <v>171</v>
+      </c>
+      <c r="H109">
+        <v>1400</v>
+      </c>
+      <c r="I109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J109">
+        <v>120</v>
+      </c>
+      <c r="K109" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110">
+        <v>5394</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110">
+        <v>1400</v>
+      </c>
+      <c r="I110" t="s">
+        <v>297</v>
+      </c>
+      <c r="J110">
+        <v>88</v>
+      </c>
+      <c r="K110" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="E101" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101">
-        <v>3672</v>
-      </c>
-      <c r="G101">
-        <v>9</v>
-      </c>
-      <c r="H101">
-        <v>1000</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101">
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" t="s">
+        <v>276</v>
+      </c>
+      <c r="F111">
+        <v>5117</v>
+      </c>
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>1400</v>
+      </c>
+      <c r="I111" t="s">
+        <v>296</v>
+      </c>
+      <c r="J111">
+        <v>367</v>
+      </c>
+      <c r="K111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" t="s">
+        <v>181</v>
+      </c>
+      <c r="E112" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112">
+        <v>1511</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>1200</v>
+      </c>
+      <c r="I112" t="s">
+        <v>297</v>
+      </c>
+      <c r="J112">
+        <v>322</v>
+      </c>
+      <c r="K112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113">
+        <v>9703</v>
+      </c>
+      <c r="G113">
+        <v>167</v>
+      </c>
+      <c r="H113">
+        <v>1200</v>
+      </c>
+      <c r="I113" t="s">
+        <v>297</v>
+      </c>
+      <c r="J113">
+        <v>385</v>
+      </c>
+      <c r="K113" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" t="s">
+        <v>278</v>
+      </c>
+      <c r="F114">
+        <v>5710</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1400</v>
+      </c>
+      <c r="I114" t="s">
+        <v>296</v>
+      </c>
+      <c r="J114">
+        <v>475</v>
+      </c>
+      <c r="K114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" t="s">
+        <v>279</v>
+      </c>
+      <c r="F115">
+        <v>7801</v>
+      </c>
+      <c r="G115">
+        <v>184</v>
+      </c>
+      <c r="H115">
+        <v>1200</v>
+      </c>
+      <c r="I115" t="s">
+        <v>296</v>
+      </c>
+      <c r="J115">
+        <v>155</v>
+      </c>
+      <c r="K115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" t="s">
+        <v>180</v>
+      </c>
+      <c r="E116" t="s">
+        <v>280</v>
+      </c>
+      <c r="F116">
+        <v>102</v>
+      </c>
+      <c r="G116">
+        <v>170</v>
+      </c>
+      <c r="H116">
+        <v>12000</v>
+      </c>
+      <c r="I116" t="s">
+        <v>297</v>
+      </c>
+      <c r="J116">
+        <v>126</v>
+      </c>
+      <c r="K116" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" t="s">
+        <v>180</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117">
+        <v>8923</v>
+      </c>
+      <c r="G117">
+        <v>107</v>
+      </c>
+      <c r="H117">
+        <v>250000</v>
+      </c>
+      <c r="I117" t="s">
+        <v>296</v>
+      </c>
+      <c r="J117">
+        <v>379</v>
+      </c>
+      <c r="K117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118">
+        <v>6530</v>
+      </c>
+      <c r="G118">
+        <v>39</v>
+      </c>
+      <c r="H118">
+        <v>250000</v>
+      </c>
+      <c r="I118" t="s">
+        <v>296</v>
+      </c>
+      <c r="J118">
+        <v>107</v>
+      </c>
+      <c r="K118" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+      <c r="F119">
+        <v>9843</v>
+      </c>
+      <c r="G119">
+        <v>171</v>
+      </c>
+      <c r="H119">
+        <v>250000</v>
+      </c>
+      <c r="I119" t="s">
+        <v>297</v>
+      </c>
+      <c r="J119">
+        <v>465</v>
+      </c>
+      <c r="K119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120">
+        <v>8280</v>
+      </c>
+      <c r="G120">
+        <v>108</v>
+      </c>
+      <c r="H120">
+        <v>1200</v>
+      </c>
+      <c r="I120" t="s">
+        <v>297</v>
+      </c>
+      <c r="J120">
+        <v>214</v>
+      </c>
+      <c r="K120" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" t="s">
+        <v>179</v>
+      </c>
+      <c r="E121" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121">
+        <v>3408</v>
+      </c>
+      <c r="G121">
+        <v>172</v>
+      </c>
+      <c r="H121">
+        <v>1200</v>
+      </c>
+      <c r="I121" t="s">
+        <v>297</v>
+      </c>
+      <c r="J121">
+        <v>320</v>
+      </c>
+      <c r="K121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" t="s">
+        <v>180</v>
+      </c>
+      <c r="E122" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122">
+        <v>4701</v>
+      </c>
+      <c r="G122">
+        <v>41</v>
+      </c>
+      <c r="H122">
+        <v>1400</v>
+      </c>
+      <c r="I122" t="s">
+        <v>297</v>
+      </c>
+      <c r="J122">
+        <v>117</v>
+      </c>
+      <c r="K122" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123">
+        <v>670</v>
+      </c>
+      <c r="G123">
+        <v>113</v>
+      </c>
+      <c r="H123">
+        <v>12000</v>
+      </c>
+      <c r="I123" t="s">
+        <v>296</v>
+      </c>
+      <c r="J123">
+        <v>108</v>
+      </c>
+      <c r="K123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" t="s">
+        <v>259</v>
+      </c>
+      <c r="F124">
+        <v>3257</v>
+      </c>
+      <c r="G124">
         <v>25</v>
       </c>
-      <c r="K101" t="b">
-        <v>0</v>
+      <c r="H124">
+        <v>250000</v>
+      </c>
+      <c r="I124" t="s">
+        <v>296</v>
+      </c>
+      <c r="J124">
+        <v>188</v>
+      </c>
+      <c r="K124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125">
+        <v>4765</v>
+      </c>
+      <c r="G125">
+        <v>199</v>
+      </c>
+      <c r="H125">
+        <v>250000</v>
+      </c>
+      <c r="I125" t="s">
+        <v>297</v>
+      </c>
+      <c r="J125">
+        <v>186</v>
+      </c>
+      <c r="K125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126">
+        <v>5100</v>
+      </c>
+      <c r="G126">
+        <v>116</v>
+      </c>
+      <c r="H126">
+        <v>1400</v>
+      </c>
+      <c r="I126" t="s">
+        <v>296</v>
+      </c>
+      <c r="J126">
+        <v>382</v>
+      </c>
+      <c r="K126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F127">
+        <v>1820</v>
+      </c>
+      <c r="G127">
+        <v>300</v>
+      </c>
+      <c r="H127">
+        <v>12000</v>
+      </c>
+      <c r="I127" t="s">
+        <v>297</v>
+      </c>
+      <c r="J127">
+        <v>471</v>
+      </c>
+      <c r="K127" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C128" t="s">
+        <v>300</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F128">
+        <v>6456</v>
+      </c>
+      <c r="G128">
+        <v>114</v>
+      </c>
+      <c r="H128">
+        <v>12000</v>
+      </c>
+      <c r="I128" t="s">
+        <v>296</v>
+      </c>
+      <c r="J128">
+        <v>251</v>
+      </c>
+      <c r="K128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" t="s">
+        <v>181</v>
+      </c>
+      <c r="E129" t="s">
+        <v>272</v>
+      </c>
+      <c r="F129">
+        <v>4372</v>
+      </c>
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
+        <v>1200</v>
+      </c>
+      <c r="I129" t="s">
+        <v>296</v>
+      </c>
+      <c r="J129">
+        <v>494</v>
+      </c>
+      <c r="K129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" t="s">
+        <v>172</v>
+      </c>
+      <c r="D130" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" t="s">
+        <v>287</v>
+      </c>
+      <c r="F130">
+        <v>2268</v>
+      </c>
+      <c r="G130">
+        <v>78</v>
+      </c>
+      <c r="H130">
+        <v>1400</v>
+      </c>
+      <c r="I130" t="s">
+        <v>297</v>
+      </c>
+      <c r="J130">
+        <v>477</v>
+      </c>
+      <c r="K130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C131" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131">
+        <v>6631</v>
+      </c>
+      <c r="G131">
+        <v>34</v>
+      </c>
+      <c r="H131">
+        <v>1200</v>
+      </c>
+      <c r="I131" t="s">
+        <v>297</v>
+      </c>
+      <c r="J131">
+        <v>355</v>
+      </c>
+      <c r="K131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132">
+        <v>8289</v>
+      </c>
+      <c r="G132">
+        <v>109</v>
+      </c>
+      <c r="H132">
+        <v>12000</v>
+      </c>
+      <c r="I132" t="s">
+        <v>296</v>
+      </c>
+      <c r="J132">
+        <v>123</v>
+      </c>
+      <c r="K132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>173</v>
+      </c>
+      <c r="D133" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133">
+        <v>9758</v>
+      </c>
+      <c r="G133">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>1400</v>
+      </c>
+      <c r="I133" t="s">
+        <v>296</v>
+      </c>
+      <c r="J133">
+        <v>188</v>
+      </c>
+      <c r="K133" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134">
+        <v>8710</v>
+      </c>
+      <c r="G134">
+        <v>21</v>
+      </c>
+      <c r="H134">
+        <v>250000</v>
+      </c>
+      <c r="I134" t="s">
+        <v>296</v>
+      </c>
+      <c r="J134">
+        <v>441</v>
+      </c>
+      <c r="K134" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" t="s">
+        <v>181</v>
+      </c>
+      <c r="E135" t="s">
+        <v>271</v>
+      </c>
+      <c r="F135">
+        <v>4310</v>
+      </c>
+      <c r="G135">
+        <v>56</v>
+      </c>
+      <c r="H135">
+        <v>1400</v>
+      </c>
+      <c r="I135" t="s">
+        <v>296</v>
+      </c>
+      <c r="J135">
+        <v>375</v>
+      </c>
+      <c r="K135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136">
+        <v>7971</v>
+      </c>
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="H136">
+        <v>1400</v>
+      </c>
+      <c r="I136" t="s">
+        <v>296</v>
+      </c>
+      <c r="J136">
+        <v>330</v>
+      </c>
+      <c r="K136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137">
+        <v>7345</v>
+      </c>
+      <c r="G137">
+        <v>47</v>
+      </c>
+      <c r="H137">
+        <v>12000</v>
+      </c>
+      <c r="I137" t="s">
+        <v>297</v>
+      </c>
+      <c r="J137">
+        <v>61</v>
+      </c>
+      <c r="K137" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138" t="s">
+        <v>287</v>
+      </c>
+      <c r="F138">
+        <v>1078</v>
+      </c>
+      <c r="G138">
+        <v>98</v>
+      </c>
+      <c r="H138">
+        <v>250000</v>
+      </c>
+      <c r="I138" t="s">
+        <v>297</v>
+      </c>
+      <c r="J138">
+        <v>346</v>
+      </c>
+      <c r="K138" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" t="s">
+        <v>237</v>
+      </c>
+      <c r="F139">
+        <v>3947</v>
+      </c>
+      <c r="G139">
+        <v>194</v>
+      </c>
+      <c r="H139">
+        <v>250000</v>
+      </c>
+      <c r="I139" t="s">
+        <v>296</v>
+      </c>
+      <c r="J139">
+        <v>278</v>
+      </c>
+      <c r="K139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" t="s">
+        <v>179</v>
+      </c>
+      <c r="E140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F140">
+        <v>234</v>
+      </c>
+      <c r="G140">
+        <v>8</v>
+      </c>
+      <c r="H140">
+        <v>1400</v>
+      </c>
+      <c r="I140" t="s">
+        <v>297</v>
+      </c>
+      <c r="J140">
+        <v>54</v>
+      </c>
+      <c r="K140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" t="s">
+        <v>290</v>
+      </c>
+      <c r="F141">
+        <v>7869</v>
+      </c>
+      <c r="G141">
+        <v>144</v>
+      </c>
+      <c r="H141">
+        <v>250000</v>
+      </c>
+      <c r="I141" t="s">
+        <v>297</v>
+      </c>
+      <c r="J141">
+        <v>147</v>
+      </c>
+      <c r="K141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142">
+        <v>4347</v>
+      </c>
+      <c r="G142">
+        <v>182</v>
+      </c>
+      <c r="H142">
+        <v>1200</v>
+      </c>
+      <c r="I142" t="s">
+        <v>297</v>
+      </c>
+      <c r="J142">
+        <v>245</v>
+      </c>
+      <c r="K142" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" t="s">
+        <v>292</v>
+      </c>
+      <c r="F143">
+        <v>5722</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+      <c r="H143">
+        <v>1200</v>
+      </c>
+      <c r="I143" t="s">
+        <v>297</v>
+      </c>
+      <c r="J143">
+        <v>455</v>
+      </c>
+      <c r="K143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144">
+        <v>3637</v>
+      </c>
+      <c r="G144">
+        <v>300</v>
+      </c>
+      <c r="H144">
+        <v>12000</v>
+      </c>
+      <c r="I144" t="s">
+        <v>297</v>
+      </c>
+      <c r="J144">
+        <v>260</v>
+      </c>
+      <c r="K144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>173</v>
+      </c>
+      <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145">
+        <v>631</v>
+      </c>
+      <c r="G145">
+        <v>128</v>
+      </c>
+      <c r="H145">
+        <v>1400</v>
+      </c>
+      <c r="I145" t="s">
+        <v>297</v>
+      </c>
+      <c r="J145">
+        <v>441</v>
+      </c>
+      <c r="K145" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D146" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" t="s">
+        <v>274</v>
+      </c>
+      <c r="F146">
+        <v>8787</v>
+      </c>
+      <c r="G146">
+        <v>190</v>
+      </c>
+      <c r="H146">
+        <v>1200</v>
+      </c>
+      <c r="I146" t="s">
+        <v>296</v>
+      </c>
+      <c r="J146">
+        <v>433</v>
+      </c>
+      <c r="K146" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" t="s">
+        <v>178</v>
+      </c>
+      <c r="E147" t="s">
+        <v>258</v>
+      </c>
+      <c r="F147">
+        <v>2625</v>
+      </c>
+      <c r="G147">
+        <v>162</v>
+      </c>
+      <c r="H147">
+        <v>1400</v>
+      </c>
+      <c r="I147" t="s">
+        <v>297</v>
+      </c>
+      <c r="J147">
+        <v>229</v>
+      </c>
+      <c r="K147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148" t="s">
+        <v>180</v>
+      </c>
+      <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148">
+        <v>1295</v>
+      </c>
+      <c r="G148">
+        <v>189</v>
+      </c>
+      <c r="H148">
+        <v>12000</v>
+      </c>
+      <c r="I148" t="s">
+        <v>296</v>
+      </c>
+      <c r="J148">
+        <v>75</v>
+      </c>
+      <c r="K148" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" t="s">
+        <v>179</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+      <c r="F149">
+        <v>4082</v>
+      </c>
+      <c r="G149">
+        <v>8</v>
+      </c>
+      <c r="H149">
+        <v>1400</v>
+      </c>
+      <c r="I149" t="s">
+        <v>296</v>
+      </c>
+      <c r="J149">
+        <v>390</v>
+      </c>
+      <c r="K149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" t="s">
+        <v>170</v>
+      </c>
+      <c r="D150" t="s">
+        <v>180</v>
+      </c>
+      <c r="E150" t="s">
+        <v>295</v>
+      </c>
+      <c r="F150">
+        <v>3920</v>
+      </c>
+      <c r="G150">
+        <v>161</v>
+      </c>
+      <c r="H150">
+        <v>250000</v>
+      </c>
+      <c r="I150" t="s">
+        <v>296</v>
+      </c>
+      <c r="J150">
+        <v>152</v>
+      </c>
+      <c r="K150" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" t="s">
+        <v>243</v>
+      </c>
+      <c r="F151">
+        <v>187</v>
+      </c>
+      <c r="G151">
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>12000</v>
+      </c>
+      <c r="I151" t="s">
+        <v>297</v>
+      </c>
+      <c r="J151">
+        <v>152</v>
+      </c>
+      <c r="K151" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto_final/Insumos/aviones_compania_final.xlsx
+++ b/Proyecto_final/Insumos/aviones_compania_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ovejo\Documents\Universidad-Daniel\Udea\Logica_y_representacion1\Trabajo-Logica---Aerolinea\Proyecto_final\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4485F-DDA1-4EEF-9180-A433A2972415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E4A32-9B9E-4511-9335-955394663259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Directorio_Aviones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Directorio_Aviones!$H$1:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Directorio_Aviones!$B$1:$B$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6612,6 +6612,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>